--- a/specs/specs.xlsx
+++ b/specs/specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/r-pharma2022/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F87A46-B970-EB44-B7AB-2FA653033C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1361B60F-3528-7049-8758-B3D8B268B50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="409">
   <si>
     <t>Attribute</t>
   </si>
@@ -1175,6 +1175,96 @@
   </si>
   <si>
     <t>Source Variable of LSTALVDT</t>
+  </si>
+  <si>
+    <t>ADAETTE</t>
+  </si>
+  <si>
+    <t>Time to Adverse Event Analysis</t>
+  </si>
+  <si>
+    <t>STUDYID, USUBJID, PARAMCD</t>
+  </si>
+  <si>
+    <t>PARCAT1</t>
+  </si>
+  <si>
+    <t>Parameter Category 1</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>AVALU</t>
+  </si>
+  <si>
+    <t>Analysis Value Unit</t>
+  </si>
+  <si>
+    <t>STARTDT</t>
+  </si>
+  <si>
+    <t>Time-to-Event Origin Date for Subject</t>
+  </si>
+  <si>
+    <t>STARTDTF</t>
+  </si>
+  <si>
+    <t>Origin Date Imputation Flag</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>Analysis Date</t>
+  </si>
+  <si>
+    <t>ADY</t>
+  </si>
+  <si>
+    <t>Analysis Relative Day</t>
+  </si>
+  <si>
+    <t>ADTF</t>
+  </si>
+  <si>
+    <t>Analysis Date Imputation Flag</t>
+  </si>
+  <si>
+    <t>CNSR</t>
+  </si>
+  <si>
+    <t>Censor</t>
+  </si>
+  <si>
+    <t>EVNTDESC</t>
+  </si>
+  <si>
+    <t>Event or Censoring Description</t>
+  </si>
+  <si>
+    <t>CNSDTDSC</t>
+  </si>
+  <si>
+    <t>Censor Date Description</t>
+  </si>
+  <si>
+    <t>SRCDOM</t>
+  </si>
+  <si>
+    <t>Source Data</t>
+  </si>
+  <si>
+    <t>SRCVAR</t>
+  </si>
+  <si>
+    <t>Source Variable</t>
+  </si>
+  <si>
+    <t>SRCSEQ</t>
+  </si>
+  <si>
+    <t>Source Sequence Number</t>
   </si>
 </sst>
 </file>
@@ -1762,9 +1852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1891,15 +1981,31 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2012,10 +2118,10 @@
   <dimension ref="A1:P255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4950,594 +5056,1128 @@
       <c r="O81" s="10"/>
       <c r="P81" s="9"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
+    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>1</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="9">
+        <v>6</v>
+      </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="22"/>
+      <c r="J82" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
+      <c r="N82" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
+    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>2</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="9">
+        <v>13</v>
+      </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="9"/>
       <c r="J83" s="10"/>
-      <c r="K83" s="9"/>
+      <c r="K83" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
+      <c r="N83" s="10" t="s">
+        <v>304</v>
+      </c>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10"/>
+    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>4</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="9">
+        <v>6</v>
+      </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="9"/>
       <c r="J84" s="10"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
+      <c r="K84" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L84" s="10"/>
       <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
+      <c r="N84" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="10"/>
+    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>5</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="9">
+        <v>8</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
       <c r="H85" s="10"/>
       <c r="I85" s="9"/>
       <c r="J85" s="10"/>
-      <c r="K85" s="9"/>
+      <c r="K85" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
+      <c r="N85" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>6</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="9">
+        <v>5</v>
+      </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="9"/>
+      <c r="J86" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L86" s="9"/>
       <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
+      <c r="N86" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="10"/>
+    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>7</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="9">
+        <v>8</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
       <c r="H87" s="10"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="10"/>
+      <c r="J87" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L87" s="9"/>
       <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
+      <c r="N87" s="10" t="s">
+        <v>306</v>
+      </c>
       <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
+      <c r="P87" s="9"/>
+    </row>
+    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>8</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="J88" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
+      <c r="N88" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
+    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>9</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="9">
+        <v>32</v>
+      </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="9"/>
+      <c r="J89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K89" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
+      <c r="N89" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
+    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>11</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="9">
+        <v>8</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H90" s="10"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="9"/>
+      <c r="J90" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K90" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
+      <c r="N90" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
+    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>12</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" s="9">
+        <v>14</v>
+      </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
+      <c r="J91" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K91" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
+      <c r="N91" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
+    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>14</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="9">
+        <v>1</v>
+      </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
+      <c r="J92" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K92" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L92" s="10"/>
       <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
+      <c r="N92" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
+      <c r="P92" s="9"/>
+    </row>
+    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>15</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1</v>
+      </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
+      <c r="J93" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K93" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L93" s="10"/>
       <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
+      <c r="N93" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
+      <c r="P93" s="9"/>
+    </row>
+    <row r="94" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>16</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
+      <c r="J94" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K94" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L94" s="10"/>
       <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
+      <c r="N94" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
+    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>17</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="9">
+        <v>21</v>
+      </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="9"/>
+      <c r="J95" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K95" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
+      <c r="N95" s="10" t="s">
+        <v>222</v>
+      </c>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
+    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>18</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="10">
+        <v>8</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="10"/>
+      <c r="J96" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K96" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L96" s="9"/>
       <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
+      <c r="N96" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
+    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>19</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="9">
+        <v>21</v>
+      </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="J97" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K97" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
+      <c r="N97" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="10"/>
+    <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>20</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="9">
+        <v>8</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="9"/>
+      <c r="J98" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K98" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
+      <c r="N98" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="O98" s="10"/>
-      <c r="P98" s="9"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
+      <c r="P98" s="10"/>
+    </row>
+    <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>21</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F99" s="9">
+        <v>200</v>
+      </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="9"/>
       <c r="J99" s="10"/>
-      <c r="K99" s="9"/>
+      <c r="K99" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
+    <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>22</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" s="9">
+        <v>8</v>
+      </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="9"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="9"/>
+      <c r="K100" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
+    <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>23</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F101" s="9">
+        <v>200</v>
+      </c>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="9"/>
       <c r="J101" s="10"/>
-      <c r="K101" s="9"/>
+      <c r="K101" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
+    <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>24</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F102" s="9">
+        <v>8</v>
+      </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
-      <c r="K102" s="9"/>
+      <c r="K102" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="9"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
+    <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>25</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F103" s="9">
+        <v>40</v>
+      </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
-      <c r="K103" s="9"/>
+      <c r="K103" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
+    <row r="104" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>26</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F104" s="9">
+        <v>8</v>
+      </c>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
-      <c r="K104" s="9"/>
+      <c r="K104" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
+    <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>27</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1</v>
+      </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="9"/>
+      <c r="K105" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
+    <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>28</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" s="9">
+        <v>8</v>
+      </c>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
+      <c r="K106" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
+    <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>29</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" s="9">
+        <v>8</v>
+      </c>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
-      <c r="K107" s="9"/>
+      <c r="K107" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
+    <row r="108" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>30</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1</v>
+      </c>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
-      <c r="K108" s="9"/>
+      <c r="K108" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
+    <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>31</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F109" s="9">
+        <v>8</v>
+      </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
-      <c r="K109" s="9"/>
+      <c r="K109" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
+    <row r="110" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>32</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F110" s="9">
+        <v>200</v>
+      </c>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
-      <c r="K110" s="9"/>
+      <c r="K110" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
+    <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>33</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="9">
+        <v>200</v>
+      </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="9"/>
+      <c r="K111" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
+    <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>34</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="9">
+        <v>10</v>
+      </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
-      <c r="K112" s="9"/>
+      <c r="K112" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="9"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
+    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>35</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F113" s="9">
+        <v>50</v>
+      </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
-      <c r="K113" s="9"/>
+      <c r="K113" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="9"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>36</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F114" s="9">
+        <v>8</v>
+      </c>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="9"/>
       <c r="J114" s="10"/>
-      <c r="K114" s="9"/>
+      <c r="K114" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>

--- a/specs/specs.xlsx
+++ b/specs/specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/r-pharma2022/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1361B60F-3528-7049-8758-B3D8B268B50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C8EF8B-1C2E-6642-8484-66B17A620B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="410">
   <si>
     <t>Attribute</t>
   </si>
@@ -829,33 +829,6 @@
     <t>ADSL.BMIBL</t>
   </si>
   <si>
-    <t>TRTSDTM</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>ADSL.TRTSDTM</t>
-  </si>
-  <si>
-    <t>Datetime of First Exposure to Treatment</t>
-  </si>
-  <si>
-    <t>TRTEDTM</t>
-  </si>
-  <si>
-    <t>Datetime of Last Exposure to Treatment</t>
-  </si>
-  <si>
-    <t>ADSL.TRTEDTM</t>
-  </si>
-  <si>
-    <t>Numeric datetime part of the latest EX.EXENDTC</t>
-  </si>
-  <si>
-    <t>Numeric datetime part of the earliest EX.EXSTDTC</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;65 </t>
   </si>
   <si>
@@ -1120,12 +1093,6 @@
     <t>Algorithm to derive ADPFT.ABLFL</t>
   </si>
   <si>
-    <t>Algorithm to derive ADSL.TRTSDTM</t>
-  </si>
-  <si>
-    <t>Algorithm to derive ADSL.TRTEDTM</t>
-  </si>
-  <si>
     <t>Algorithm to derive ADAE.AENDT</t>
   </si>
   <si>
@@ -1265,6 +1232,42 @@
   </si>
   <si>
     <t>Source Sequence Number</t>
+  </si>
+  <si>
+    <t>PARAMCD EQ ""</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>TRTEDT</t>
+  </si>
+  <si>
+    <t>TRTSDT</t>
+  </si>
+  <si>
+    <t>Date of First Exposure to Treatment</t>
+  </si>
+  <si>
+    <t>Date of Last Exposure to Treatment</t>
+  </si>
+  <si>
+    <t>ADSL.TRTSDT</t>
+  </si>
+  <si>
+    <t>ADSL.TRTEDT</t>
+  </si>
+  <si>
+    <t>Numeric date part of the latest EX.EXENDTC</t>
+  </si>
+  <si>
+    <t>Numeric date part of the earliest EX.EXSTDTC</t>
+  </si>
+  <si>
+    <t>Algorithm to derive ADSL.TRTSDT</t>
+  </si>
+  <si>
+    <t>Algorithm to derive ADSL.TRTEDT</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1920,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>49</v>
@@ -1965,13 +1968,13 @@
         <v>118</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>49</v>
@@ -1983,22 +1986,22 @@
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>49</v>
@@ -2117,11 +2120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L106" sqref="L106"/>
+      <selection pane="bottomRight" activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2228,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2259,7 +2262,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="10"/>
       <c r="N3" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="20"/>
@@ -2295,7 +2298,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
       <c r="N4" s="20" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
@@ -2636,10 +2639,10 @@
         <v>108</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>123</v>
@@ -2659,7 +2662,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -2856,10 +2859,10 @@
         <v>108</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>124</v>
@@ -2876,7 +2879,7 @@
       </c>
       <c r="L20" s="9"/>
       <c r="N20" s="10" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -3041,10 +3044,10 @@
         <v>113</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>124</v>
@@ -3063,7 +3066,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="22"/>
       <c r="N25" s="10" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -3834,10 +3837,10 @@
         <v>113</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>124</v>
@@ -3936,13 +3939,13 @@
         <v>113</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>266</v>
+        <v>402</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
@@ -3954,7 +3957,7 @@
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10" t="s">
-        <v>265</v>
+        <v>404</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -3968,13 +3971,13 @@
         <v>113</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>268</v>
+        <v>403</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
@@ -3986,7 +3989,7 @@
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10" t="s">
-        <v>269</v>
+        <v>405</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -4000,10 +4003,10 @@
         <v>113</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>124</v>
@@ -4032,10 +4035,10 @@
         <v>113</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>123</v>
@@ -4062,10 +4065,10 @@
         <v>113</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>124</v>
@@ -4094,13 +4097,13 @@
         <v>113</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
@@ -4147,7 +4150,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -4181,7 +4184,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -4194,10 +4197,10 @@
         <v>116</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>124</v>
@@ -4215,7 +4218,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -4228,10 +4231,10 @@
         <v>116</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>123</v>
@@ -4251,7 +4254,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -4325,7 +4328,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O61" s="10"/>
       <c r="P61" s="9"/>
@@ -4435,7 +4438,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -4484,10 +4487,10 @@
         <v>116</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>124</v>
@@ -4507,7 +4510,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="9"/>
@@ -4543,7 +4546,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="9"/>
@@ -4579,7 +4582,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -4592,7 +4595,7 @@
         <v>116</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>220</v>
@@ -4628,7 +4631,7 @@
         <v>116</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>221</v>
@@ -4666,10 +4669,10 @@
         <v>116</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>124</v>
@@ -4702,10 +4705,10 @@
         <v>116</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>123</v>
@@ -4740,10 +4743,10 @@
         <v>116</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>124</v>
@@ -4755,7 +4758,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="9"/>
       <c r="J73" s="10" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K73" s="22" t="s">
         <v>119</v>
@@ -4763,7 +4766,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -4776,10 +4779,10 @@
         <v>116</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>123</v>
@@ -4793,7 +4796,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K74" s="22" t="s">
         <v>119</v>
@@ -4801,7 +4804,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -4814,10 +4817,10 @@
         <v>116</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>124</v>
@@ -4829,7 +4832,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="10" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K75" s="22" t="s">
         <v>119</v>
@@ -4837,7 +4840,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -4850,10 +4853,10 @@
         <v>116</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>124</v>
@@ -4865,7 +4868,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
       <c r="J76" s="22" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K76" s="22" t="s">
         <v>119</v>
@@ -4873,7 +4876,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
@@ -4886,10 +4889,10 @@
         <v>116</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>123</v>
@@ -4903,7 +4906,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="9"/>
       <c r="J77" s="10" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K77" s="22" t="s">
         <v>129</v>
@@ -4922,10 +4925,10 @@
         <v>116</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>123</v>
@@ -4945,7 +4948,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -4958,10 +4961,10 @@
         <v>116</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>124</v>
@@ -4978,7 +4981,7 @@
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -4992,10 +4995,10 @@
         <v>116</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>123</v>
@@ -5014,7 +5017,7 @@
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5028,10 +5031,10 @@
         <v>116</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>123</v>
@@ -5050,7 +5053,7 @@
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -5061,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>51</v>
@@ -5087,7 +5090,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
@@ -5097,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>52</v>
@@ -5121,7 +5124,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
@@ -5131,13 +5134,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>124</v>
@@ -5155,7 +5158,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -5165,13 +5168,13 @@
         <v>5</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>123</v>
@@ -5191,7 +5194,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
@@ -5201,7 +5204,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>151</v>
@@ -5237,7 +5240,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>133</v>
@@ -5265,7 +5268,7 @@
       <c r="L87" s="9"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O87" s="10"/>
       <c r="P87" s="9"/>
@@ -5275,7 +5278,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>54</v>
@@ -5311,7 +5314,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>55</v>
@@ -5347,7 +5350,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>154</v>
@@ -5375,7 +5378,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
@@ -5385,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>126</v>
@@ -5421,13 +5424,13 @@
         <v>14</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>124</v>
@@ -5447,7 +5450,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="O92" s="10"/>
       <c r="P92" s="9"/>
@@ -5457,7 +5460,7 @@
         <v>15</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>214</v>
@@ -5483,7 +5486,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="O93" s="10"/>
       <c r="P93" s="9"/>
@@ -5493,7 +5496,7 @@
         <v>16</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>210</v>
@@ -5519,7 +5522,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
@@ -5529,10 +5532,10 @@
         <v>17</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>220</v>
@@ -5565,10 +5568,10 @@
         <v>18</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>221</v>
@@ -5603,13 +5606,13 @@
         <v>19</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>124</v>
@@ -5639,13 +5642,13 @@
         <v>20</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>123</v>
@@ -5677,13 +5680,13 @@
         <v>21</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>62</v>
@@ -5709,13 +5712,13 @@
         <v>22</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>62</v>
@@ -5741,13 +5744,13 @@
         <v>23</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>62</v>
@@ -5773,16 +5776,16 @@
         <v>24</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F102" s="9">
         <v>8</v>
@@ -5805,13 +5808,13 @@
         <v>25</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>62</v>
@@ -5837,13 +5840,13 @@
         <v>26</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>163</v>
@@ -5869,13 +5872,13 @@
         <v>27</v>
       </c>
       <c r="B105" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>62</v>
@@ -5901,13 +5904,13 @@
         <v>28</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>163</v>
@@ -5933,13 +5936,13 @@
         <v>29</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>163</v>
@@ -5965,13 +5968,13 @@
         <v>30</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>62</v>
@@ -5997,13 +6000,13 @@
         <v>31</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>163</v>
@@ -6029,13 +6032,13 @@
         <v>32</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>62</v>
@@ -6061,13 +6064,13 @@
         <v>33</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>62</v>
@@ -6093,13 +6096,13 @@
         <v>34</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>62</v>
@@ -6125,13 +6128,13 @@
         <v>35</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>62</v>
@@ -6157,13 +6160,13 @@
         <v>36</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>163</v>
@@ -8736,9 +8739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8815,13 +8818,13 @@
         <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>123</v>
@@ -8833,7 +8836,7 @@
         <v>119</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8841,13 +8844,13 @@
         <v>116</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>205</v>
@@ -8859,13 +8862,13 @@
         <v>65</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8873,13 +8876,13 @@
         <v>116</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>205</v>
@@ -8891,13 +8894,13 @@
         <v>66</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8905,13 +8908,13 @@
         <v>116</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>205</v>
@@ -8923,13 +8926,13 @@
         <v>66</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8937,13 +8940,13 @@
         <v>116</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>205</v>
@@ -8955,17 +8958,43 @@
         <v>66</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="22"/>
@@ -9045,7 +9074,7 @@
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="27" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9067,7 +9096,7 @@
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="27" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9089,7 +9118,7 @@
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="27" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9569,11 +9598,11 @@
         <v>1</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="27" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9591,11 +9620,11 @@
         <v>1</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="27" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9613,11 +9642,11 @@
         <v>2</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="27" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9635,11 +9664,11 @@
         <v>3</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="27" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10246,10 +10275,10 @@
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>124</v>
@@ -10258,18 +10287,18 @@
         <v>1</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>124</v>
@@ -10278,18 +10307,18 @@
         <v>2</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>124</v>
@@ -10298,18 +10327,18 @@
         <v>3</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>124</v>
@@ -10318,18 +10347,18 @@
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>124</v>
@@ -10338,18 +10367,18 @@
         <v>5</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>124</v>
@@ -10358,18 +10387,18 @@
         <v>1</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>124</v>
@@ -10378,18 +10407,18 @@
         <v>2</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>124</v>
@@ -10398,18 +10427,18 @@
         <v>3</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>124</v>
@@ -10418,18 +10447,18 @@
         <v>4</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>124</v>
@@ -10438,18 +10467,18 @@
         <v>5</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>123</v>
@@ -10461,15 +10490,15 @@
         <v>66</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>123</v>
@@ -10481,15 +10510,15 @@
         <v>63</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>123</v>
@@ -10501,15 +10530,15 @@
         <v>65</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>123</v>
@@ -10521,15 +10550,15 @@
         <v>258</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>123</v>
@@ -10541,15 +10570,15 @@
         <v>259</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>124</v>
@@ -10558,18 +10587,18 @@
         <v>66</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>124</v>
@@ -10578,18 +10607,18 @@
         <v>63</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>124</v>
@@ -10598,18 +10627,18 @@
         <v>65</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>124</v>
@@ -10618,18 +10647,18 @@
         <v>258</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>124</v>
@@ -10638,18 +10667,18 @@
         <v>259</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>123</v>
@@ -10661,15 +10690,15 @@
         <v>66</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>123</v>
@@ -10681,15 +10710,15 @@
         <v>63</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>123</v>
@@ -10701,15 +10730,15 @@
         <v>65</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>123</v>
@@ -10721,15 +10750,15 @@
         <v>258</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>123</v>
@@ -10741,7 +10770,7 @@
         <v>259</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -10833,9 +10862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10882,7 +10911,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>93</v>
@@ -10896,7 +10925,7 @@
         <v>262</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>93</v>
@@ -10910,7 +10939,7 @@
         <v>238</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>93</v>
@@ -10924,7 +10953,7 @@
         <v>243</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>93</v>
@@ -10935,72 +10964,72 @@
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>269</v>
+        <v>405</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>270</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>265</v>
+        <v>404</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>271</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/specs/specs.xlsx
+++ b/specs/specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/r-pharma2022/specs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinafillmore/Documents/GitHub/r-pharma2022/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C8EF8B-1C2E-6642-8484-66B17A620B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D78534-1063-AC4F-AF2B-2601643DCB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="411">
   <si>
     <t>Attribute</t>
   </si>
@@ -304,9 +304,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -1268,6 +1262,15 @@
   </si>
   <si>
     <t>Algorithm to derive ADSL.TRTEDT</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1348,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1428,6 +1431,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1802,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1810,7 +1816,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1818,7 +1824,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1826,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1834,7 +1840,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1905,22 +1911,22 @@
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>112</v>
-      </c>
       <c r="F2" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>49</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>48</v>
@@ -1959,22 +1965,22 @@
     </row>
     <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>49</v>
@@ -1986,22 +1992,22 @@
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>370</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>49</v>
@@ -2120,11 +2126,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P255"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P52" sqref="P52"/>
+      <selection pane="bottomRight" activeCell="F262" sqref="F262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2202,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>51</v>
@@ -2210,11 +2216,11 @@
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="9">
-        <v>6</v>
+      <c r="E2" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>409</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -2223,12 +2229,12 @@
         <v>51</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2238,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>52</v>
@@ -2246,23 +2252,23 @@
       <c r="D3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="19">
-        <v>13</v>
+      <c r="E3" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="19"/>
       <c r="J3" s="21"/>
       <c r="K3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="10"/>
       <c r="N3" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="20"/>
@@ -2272,16 +2278,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="9">
         <v>8</v>
@@ -2293,12 +2299,12 @@
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
       <c r="N4" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
@@ -2308,16 +2314,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F5" s="9">
         <v>5</v>
@@ -2326,15 +2332,15 @@
       <c r="H5" s="10"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="9"/>
@@ -2344,33 +2350,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="9"/>
@@ -2380,16 +2386,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -2398,15 +2404,15 @@
       <c r="H7" s="10"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2416,19 +2422,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="10">
-        <v>32</v>
+        <v>159</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2437,12 +2443,12 @@
         <v>55</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2452,16 +2458,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>124</v>
+        <v>218</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F9" s="9">
         <v>21</v>
@@ -2470,15 +2476,15 @@
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2488,16 +2494,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="9">
         <v>8</v>
@@ -2508,15 +2514,15 @@
       <c r="H10" s="10"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -2526,16 +2532,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>124</v>
+        <v>216</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F11" s="10">
         <v>21</v>
@@ -2544,15 +2550,15 @@
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2562,16 +2568,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="10">
         <v>8</v>
@@ -2582,15 +2588,15 @@
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2600,16 +2606,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="F13" s="9">
         <v>16</v>
@@ -2621,12 +2627,12 @@
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2636,33 +2642,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -2672,16 +2678,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>229</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F15" s="10">
         <v>16</v>
@@ -2693,12 +2699,12 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="K15" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2708,16 +2714,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="9">
         <v>8</v>
@@ -2729,11 +2735,11 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -2744,16 +2750,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="9">
         <v>8</v>
@@ -2762,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2782,16 +2788,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>124</v>
+        <v>232</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F18" s="9">
         <v>67</v>
@@ -2802,14 +2808,14 @@
       <c r="H18" s="10"/>
       <c r="I18" s="9"/>
       <c r="J18" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -2819,16 +2825,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>124</v>
+        <v>244</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F19" s="9">
         <v>43</v>
@@ -2839,14 +2845,14 @@
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
       <c r="J19" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L19" s="9"/>
       <c r="N19" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -2856,16 +2862,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>66</v>
@@ -2875,11 +2881,11 @@
       <c r="I20" s="9"/>
       <c r="J20" s="29"/>
       <c r="K20" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L20" s="9"/>
       <c r="N20" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -2889,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>51</v>
@@ -2897,11 +2903,11 @@
       <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>62</v>
+      <c r="E21" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2912,12 +2918,12 @@
         <v>51</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="9"/>
       <c r="N21" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>74</v>
@@ -2929,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>52</v>
@@ -2937,11 +2943,11 @@
       <c r="D22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>88</v>
+      <c r="E22" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -2950,7 +2956,7 @@
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="9"/>
@@ -2967,16 +2973,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F23" s="22">
         <v>3</v>
@@ -2985,10 +2991,10 @@
       <c r="H23" s="10"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="9"/>
@@ -3003,37 +3009,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="9"/>
       <c r="J24" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3041,16 +3047,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="F25" s="22">
         <v>6</v>
@@ -3061,12 +3067,12 @@
       <c r="H25" s="10"/>
       <c r="I25" s="9"/>
       <c r="K25" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="22"/>
       <c r="N25" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -3076,16 +3082,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="9">
         <v>8</v>
@@ -3097,7 +3103,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
@@ -3112,16 +3118,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F27" s="9">
         <v>5</v>
@@ -3133,7 +3139,7 @@
         <v>53</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="10"/>
@@ -3148,16 +3154,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F28" s="9">
         <v>5</v>
@@ -3166,10 +3172,10 @@
       <c r="H28" s="10"/>
       <c r="I28" s="9"/>
       <c r="J28" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3182,30 +3188,30 @@
         <v>9</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F29" s="9">
         <v>8</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -3218,16 +3224,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
@@ -3236,15 +3242,15 @@
       <c r="H30" s="10"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
@@ -3254,30 +3260,30 @@
         <v>11</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="9">
         <v>8</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
@@ -3290,16 +3296,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F32" s="9">
         <v>22</v>
@@ -3311,7 +3317,7 @@
         <v>56</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
@@ -3326,30 +3332,30 @@
         <v>13</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" s="9">
         <v>8</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
@@ -3362,19 +3368,19 @@
         <v>14</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="9">
-        <v>32</v>
+        <v>408</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -3383,12 +3389,12 @@
         <v>55</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
@@ -3398,30 +3404,30 @@
         <v>15</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="10">
         <v>8</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="9"/>
       <c r="J35" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
@@ -3434,19 +3440,19 @@
         <v>16</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -3455,7 +3461,7 @@
         <v>58</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
@@ -3470,16 +3476,16 @@
         <v>17</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>64</v>
@@ -3488,10 +3494,10 @@
       <c r="H37" s="10"/>
       <c r="I37" s="9"/>
       <c r="J37" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="9"/>
@@ -3506,16 +3512,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>124</v>
+        <v>183</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F38" s="9">
         <v>27</v>
@@ -3527,7 +3533,7 @@
         <v>58</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="9"/>
@@ -3542,16 +3548,16 @@
         <v>19</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>124</v>
+        <v>185</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F39" s="9">
         <v>8</v>
@@ -3560,10 +3566,10 @@
       <c r="H39" s="10"/>
       <c r="I39" s="9"/>
       <c r="J39" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
@@ -3578,16 +3584,16 @@
         <v>20</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>124</v>
+        <v>218</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F40" s="9">
         <v>21</v>
@@ -3596,17 +3602,17 @@
       <c r="H40" s="10"/>
       <c r="I40" s="9"/>
       <c r="J40" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="32" x14ac:dyDescent="0.2">
@@ -3614,16 +3620,16 @@
         <v>21</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="9">
         <v>8</v>
@@ -3634,17 +3640,17 @@
       <c r="H41" s="10"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3652,16 +3658,16 @@
         <v>22</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>124</v>
+        <v>216</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F42" s="9">
         <v>21</v>
@@ -3670,17 +3676,17 @@
       <c r="H42" s="10"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="9"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="32" x14ac:dyDescent="0.2">
@@ -3688,16 +3694,16 @@
         <v>23</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="9">
         <v>8</v>
@@ -3708,17 +3714,17 @@
       <c r="H43" s="10"/>
       <c r="I43" s="9"/>
       <c r="J43" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="9"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="96" x14ac:dyDescent="0.2">
@@ -3726,16 +3732,16 @@
         <v>24</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F44" s="9">
         <v>8</v>
@@ -3747,12 +3753,12 @@
       <c r="I44" s="9"/>
       <c r="J44" s="10"/>
       <c r="K44" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -3762,16 +3768,16 @@
         <v>25</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="F45" s="9">
         <v>8</v>
@@ -3783,12 +3789,12 @@
       <c r="I45" s="9"/>
       <c r="J45" s="10"/>
       <c r="K45" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -3798,16 +3804,16 @@
         <v>26</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F46" s="9">
         <v>8</v>
@@ -3819,11 +3825,11 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -3834,16 +3840,16 @@
         <v>27</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>124</v>
+        <v>333</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
@@ -3852,10 +3858,10 @@
       <c r="H47" s="10"/>
       <c r="I47" s="9"/>
       <c r="J47" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
@@ -3868,16 +3874,16 @@
         <v>28</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
@@ -3886,10 +3892,10 @@
       <c r="H48" s="10"/>
       <c r="I48" s="9"/>
       <c r="J48" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -3902,16 +3908,16 @@
         <v>29</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>124</v>
+        <v>213</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F49" s="9">
         <v>2</v>
@@ -3920,10 +3926,10 @@
       <c r="H49" s="10"/>
       <c r="I49" s="9"/>
       <c r="J49" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -3936,16 +3942,16 @@
         <v>30</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
@@ -3953,11 +3959,11 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -3968,16 +3974,16 @@
         <v>31</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
@@ -3985,11 +3991,11 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -4000,16 +4006,16 @@
         <v>32</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>124</v>
+        <v>363</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>64</v>
@@ -4019,7 +4025,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -4032,16 +4038,16 @@
         <v>33</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
@@ -4049,7 +4055,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -4062,16 +4068,16 @@
         <v>34</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>124</v>
+        <v>365</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>64</v>
@@ -4081,7 +4087,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -4094,16 +4100,16 @@
         <v>35</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>361</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
@@ -4111,7 +4117,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -4124,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>51</v>
@@ -4132,11 +4138,11 @@
       <c r="D56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="9">
-        <v>6</v>
+      <c r="E56" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>409</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -4145,12 +4151,12 @@
         <v>51</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -4160,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>52</v>
@@ -4168,23 +4174,23 @@
       <c r="D57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="9">
-        <v>13</v>
+      <c r="E57" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9"/>
       <c r="J57" s="10"/>
       <c r="K57" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -4194,16 +4200,16 @@
         <v>4</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>124</v>
+        <v>279</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F58" s="9">
         <v>6</v>
@@ -4213,12 +4219,12 @@
       <c r="I58" s="9"/>
       <c r="J58" s="10"/>
       <c r="K58" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -4228,16 +4234,16 @@
         <v>5</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F59" s="9">
         <v>8</v>
@@ -4249,12 +4255,12 @@
       <c r="I59" s="9"/>
       <c r="J59" s="10"/>
       <c r="K59" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -4264,16 +4270,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>124</v>
+        <v>153</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F60" s="9">
         <v>5</v>
@@ -4282,15 +4288,15 @@
       <c r="H60" s="10"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -4300,16 +4306,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" s="9">
         <v>8</v>
@@ -4320,15 +4326,15 @@
       <c r="H61" s="10"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O61" s="10"/>
       <c r="P61" s="9"/>
@@ -4338,16 +4344,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>124</v>
+        <v>155</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F62" s="9">
         <v>1</v>
@@ -4356,15 +4362,15 @@
       <c r="H62" s="10"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -4374,19 +4380,19 @@
         <v>9</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="9">
-        <v>32</v>
+        <v>159</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -4395,12 +4401,12 @@
         <v>55</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -4410,35 +4416,35 @@
         <v>11</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F64" s="9">
         <v>8</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="9"/>
       <c r="J64" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -4448,16 +4454,16 @@
         <v>12</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F65" s="9">
         <v>14</v>
@@ -4466,15 +4472,15 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
       <c r="J65" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
@@ -4484,16 +4490,16 @@
         <v>14</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>124</v>
+        <v>333</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F66" s="9">
         <v>1</v>
@@ -4502,15 +4508,15 @@
       <c r="H66" s="10"/>
       <c r="I66" s="9"/>
       <c r="J66" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="9"/>
@@ -4520,16 +4526,16 @@
         <v>15</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>124</v>
+        <v>213</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F67" s="9">
         <v>1</v>
@@ -4538,15 +4544,15 @@
       <c r="H67" s="10"/>
       <c r="I67" s="9"/>
       <c r="J67" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="9"/>
@@ -4556,16 +4562,16 @@
         <v>16</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F68" s="9">
         <v>1</v>
@@ -4574,15 +4580,15 @@
       <c r="H68" s="10"/>
       <c r="I68" s="9"/>
       <c r="J68" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -4592,16 +4598,16 @@
         <v>17</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>124</v>
+        <v>218</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F69" s="9">
         <v>21</v>
@@ -4610,15 +4616,15 @@
       <c r="H69" s="10"/>
       <c r="I69" s="9"/>
       <c r="J69" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -4628,16 +4634,16 @@
         <v>18</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F70" s="10">
         <v>8</v>
@@ -4648,15 +4654,15 @@
       <c r="H70" s="10"/>
       <c r="I70" s="9"/>
       <c r="J70" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
@@ -4666,16 +4672,16 @@
         <v>19</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>124</v>
+        <v>281</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F71" s="9">
         <v>21</v>
@@ -4684,15 +4690,15 @@
       <c r="H71" s="10"/>
       <c r="I71" s="9"/>
       <c r="J71" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -4702,16 +4708,16 @@
         <v>20</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F72" s="9">
         <v>8</v>
@@ -4722,15 +4728,15 @@
       <c r="H72" s="10"/>
       <c r="I72" s="9"/>
       <c r="J72" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -4740,16 +4746,16 @@
         <v>23</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>124</v>
+        <v>283</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F73" s="9">
         <v>19</v>
@@ -4758,15 +4764,15 @@
       <c r="H73" s="10"/>
       <c r="I73" s="9"/>
       <c r="J73" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -4776,16 +4782,16 @@
         <v>24</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="9">
         <v>8</v>
@@ -4796,15 +4802,15 @@
       <c r="H74" s="10"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -4814,16 +4820,16 @@
         <v>27</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>124</v>
+        <v>285</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F75" s="9">
         <v>64</v>
@@ -4832,15 +4838,15 @@
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -4850,16 +4856,16 @@
         <v>28</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>124</v>
+        <v>286</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F76" s="9">
         <v>8</v>
@@ -4868,15 +4874,15 @@
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
       <c r="J76" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
@@ -4886,16 +4892,16 @@
         <v>29</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F77" s="10">
         <v>8</v>
@@ -4906,10 +4912,10 @@
       <c r="H77" s="10"/>
       <c r="I77" s="9"/>
       <c r="J77" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="10"/>
@@ -4922,16 +4928,16 @@
         <v>30</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="10">
         <v>8</v>
@@ -4943,12 +4949,12 @@
       <c r="I78" s="9"/>
       <c r="J78" s="10"/>
       <c r="K78" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -4958,16 +4964,16 @@
         <v>31</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>124</v>
+        <v>289</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F79" s="9">
         <v>1</v>
@@ -4977,11 +4983,11 @@
       <c r="I79" s="9"/>
       <c r="J79" s="10"/>
       <c r="K79" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -4992,16 +4998,16 @@
         <v>32</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F80" s="9">
         <v>8</v>
@@ -5013,11 +5019,11 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5028,16 +5034,16 @@
         <v>33</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F81" s="9">
         <v>8</v>
@@ -5049,11 +5055,11 @@
       <c r="I81" s="9"/>
       <c r="J81" s="10"/>
       <c r="K81" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -5064,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>51</v>
@@ -5072,11 +5078,11 @@
       <c r="D82" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="9">
-        <v>6</v>
+      <c r="E82" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>409</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -5085,12 +5091,12 @@
         <v>51</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
@@ -5100,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>52</v>
@@ -5108,23 +5114,23 @@
       <c r="D83" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F83" s="9">
-        <v>13</v>
+      <c r="E83" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="9"/>
       <c r="J83" s="10"/>
       <c r="K83" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
@@ -5134,16 +5140,16 @@
         <v>4</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>124</v>
+        <v>279</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F84" s="9">
         <v>6</v>
@@ -5153,12 +5159,12 @@
       <c r="I84" s="9"/>
       <c r="J84" s="10"/>
       <c r="K84" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -5168,16 +5174,16 @@
         <v>5</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F85" s="9">
         <v>8</v>
@@ -5189,12 +5195,12 @@
       <c r="I85" s="9"/>
       <c r="J85" s="10"/>
       <c r="K85" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
@@ -5204,16 +5210,16 @@
         <v>6</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>124</v>
+        <v>153</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F86" s="9">
         <v>5</v>
@@ -5222,15 +5228,15 @@
       <c r="H86" s="10"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
@@ -5240,16 +5246,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F87" s="9">
         <v>8</v>
@@ -5260,15 +5266,15 @@
       <c r="H87" s="10"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O87" s="10"/>
       <c r="P87" s="9"/>
@@ -5278,16 +5284,16 @@
         <v>8</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>124</v>
+        <v>155</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F88" s="9">
         <v>1</v>
@@ -5296,15 +5302,15 @@
       <c r="H88" s="10"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
@@ -5314,19 +5320,19 @@
         <v>9</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F89" s="9">
-        <v>32</v>
+        <v>159</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -5335,12 +5341,12 @@
         <v>55</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
@@ -5350,35 +5356,35 @@
         <v>11</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F90" s="9">
         <v>8</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="9"/>
       <c r="J90" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
@@ -5388,16 +5394,16 @@
         <v>12</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F91" s="9">
         <v>14</v>
@@ -5406,15 +5412,15 @@
       <c r="H91" s="10"/>
       <c r="I91" s="9"/>
       <c r="J91" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
@@ -5424,16 +5430,16 @@
         <v>14</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>124</v>
+        <v>333</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F92" s="9">
         <v>1</v>
@@ -5442,15 +5448,15 @@
       <c r="H92" s="10"/>
       <c r="I92" s="9"/>
       <c r="J92" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O92" s="10"/>
       <c r="P92" s="9"/>
@@ -5460,16 +5466,16 @@
         <v>15</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>124</v>
+        <v>213</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F93" s="9">
         <v>1</v>
@@ -5478,15 +5484,15 @@
       <c r="H93" s="10"/>
       <c r="I93" s="9"/>
       <c r="J93" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O93" s="10"/>
       <c r="P93" s="9"/>
@@ -5496,16 +5502,16 @@
         <v>16</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F94" s="9">
         <v>1</v>
@@ -5514,15 +5520,15 @@
       <c r="H94" s="10"/>
       <c r="I94" s="9"/>
       <c r="J94" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
@@ -5532,16 +5538,16 @@
         <v>17</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>124</v>
+        <v>218</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F95" s="9">
         <v>21</v>
@@ -5550,15 +5556,15 @@
       <c r="H95" s="10"/>
       <c r="I95" s="9"/>
       <c r="J95" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
@@ -5568,16 +5574,16 @@
         <v>18</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F96" s="10">
         <v>8</v>
@@ -5588,15 +5594,15 @@
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
       <c r="J96" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L96" s="9"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
@@ -5606,16 +5612,16 @@
         <v>19</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>124</v>
+        <v>281</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F97" s="9">
         <v>21</v>
@@ -5624,15 +5630,15 @@
       <c r="H97" s="10"/>
       <c r="I97" s="9"/>
       <c r="J97" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
@@ -5642,16 +5648,16 @@
         <v>20</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F98" s="9">
         <v>8</v>
@@ -5662,15 +5668,15 @@
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
       <c r="J98" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
@@ -5680,16 +5686,16 @@
         <v>21</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>62</v>
+        <v>285</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F99" s="9">
         <v>200</v>
@@ -5699,7 +5705,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="10"/>
       <c r="K99" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
@@ -5712,16 +5718,16 @@
         <v>22</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F100" s="9">
         <v>8</v>
@@ -5731,7 +5737,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="10"/>
       <c r="K100" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
@@ -5744,16 +5750,16 @@
         <v>23</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>62</v>
+        <v>370</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F101" s="9">
         <v>200</v>
@@ -5763,7 +5769,7 @@
       <c r="I101" s="9"/>
       <c r="J101" s="10"/>
       <c r="K101" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
@@ -5776,16 +5782,16 @@
         <v>24</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F102" s="9">
         <v>8</v>
@@ -5795,7 +5801,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
       <c r="K102" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
@@ -5808,16 +5814,16 @@
         <v>25</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>62</v>
+        <v>373</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F103" s="9">
         <v>40</v>
@@ -5827,7 +5833,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
       <c r="K103" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
@@ -5840,16 +5846,16 @@
         <v>26</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F104" s="9">
         <v>8</v>
@@ -5859,7 +5865,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
       <c r="K104" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
@@ -5872,16 +5878,16 @@
         <v>27</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>62</v>
+        <v>377</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F105" s="9">
         <v>1</v>
@@ -5891,7 +5897,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
       <c r="K105" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
@@ -5904,16 +5910,16 @@
         <v>28</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F106" s="9">
         <v>8</v>
@@ -5923,7 +5929,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
       <c r="K106" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
@@ -5936,16 +5942,16 @@
         <v>29</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F107" s="9">
         <v>8</v>
@@ -5955,7 +5961,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
       <c r="K107" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
@@ -5968,16 +5974,16 @@
         <v>30</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F108" s="9">
         <v>1</v>
@@ -5987,7 +5993,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
       <c r="K108" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
@@ -6000,16 +6006,16 @@
         <v>31</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F109" s="9">
         <v>8</v>
@@ -6019,7 +6025,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
       <c r="K109" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -6032,16 +6038,16 @@
         <v>32</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>62</v>
+        <v>387</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F110" s="9">
         <v>200</v>
@@ -6051,7 +6057,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
       <c r="K110" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
@@ -6064,16 +6070,16 @@
         <v>33</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>62</v>
+        <v>389</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F111" s="9">
         <v>200</v>
@@ -6083,7 +6089,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
       <c r="K111" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
@@ -6096,16 +6102,16 @@
         <v>34</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>62</v>
+        <v>391</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F112" s="9">
         <v>10</v>
@@ -6115,7 +6121,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
       <c r="K112" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
@@ -6128,16 +6134,16 @@
         <v>35</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>62</v>
+        <v>393</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="F113" s="9">
         <v>50</v>
@@ -6147,7 +6153,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
       <c r="K113" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
@@ -6160,16 +6166,16 @@
         <v>36</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F114" s="9">
         <v>8</v>
@@ -6179,7 +6185,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="10"/>
       <c r="K114" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
@@ -8815,45 +8821,45 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="15">
         <v>8</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" s="15">
         <v>8</v>
@@ -8862,30 +8868,30 @@
         <v>65</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G4" s="15">
         <v>8</v>
@@ -8894,30 +8900,30 @@
         <v>66</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G5" s="15">
         <v>8</v>
@@ -8926,30 +8932,30 @@
         <v>66</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G6" s="15">
         <v>8</v>
@@ -8958,30 +8964,30 @@
         <v>66</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>64</v>
@@ -8990,10 +8996,10 @@
         <v>63</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -9010,10 +9016,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9057,14 +9063,14 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="24">
         <v>1</v>
@@ -9074,19 +9080,19 @@
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="24">
         <v>2</v>
@@ -9096,19 +9102,19 @@
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="24">
         <v>3</v>
@@ -9118,173 +9124,173 @@
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E6" s="26">
         <v>2</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E7" s="26">
         <v>3</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E8" s="26">
         <v>4</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E9" s="26">
         <v>5</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E10" s="26">
         <v>6</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E11" s="26">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E12" s="26">
         <v>8</v>
@@ -9294,7 +9300,7 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9306,7 +9312,7 @@
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -9316,7 +9322,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9328,17 +9334,17 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9350,7 +9356,7 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E15" s="26">
         <v>2</v>
@@ -9372,17 +9378,17 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E16" s="26">
         <v>3</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9394,7 +9400,7 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E17" s="26">
         <v>4</v>
@@ -9409,64 +9415,64 @@
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E20" s="26">
         <v>3</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25" t="s">
@@ -9475,20 +9481,20 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E21" s="26">
         <v>4</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25" t="s">
@@ -9497,36 +9503,36 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E22" s="26">
         <v>1</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E23" s="26">
         <v>2</v>
@@ -9536,19 +9542,19 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="26">
         <v>1</v>
@@ -9558,19 +9564,19 @@
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="26">
         <v>2</v>
@@ -9580,7 +9586,7 @@
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9592,136 +9598,136 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E28" s="26">
         <v>2</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E29" s="26">
         <v>3</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="E30" s="26">
         <v>1</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>124</v>
+        <v>165</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E31" s="14">
         <v>2</v>
       </c>
       <c r="F31" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
@@ -9730,18 +9736,18 @@
         <v>66</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="14">
         <v>2</v>
@@ -9750,7 +9756,7 @@
         <v>63</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -9760,17 +9766,17 @@
       <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>124</v>
+      <c r="D34" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E34" s="14">
         <v>1</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9780,17 +9786,17 @@
       <c r="B35" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>124</v>
+      <c r="D35" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E35" s="14">
         <v>2</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9800,17 +9806,17 @@
       <c r="B36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>124</v>
+      <c r="D36" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E36" s="14">
         <v>3</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9820,17 +9826,17 @@
       <c r="B37" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>124</v>
+      <c r="D37" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E37" s="14">
         <v>4</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -9840,17 +9846,17 @@
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>124</v>
+      <c r="D38" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E38" s="14">
         <v>5</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9860,28 +9866,28 @@
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>124</v>
+      <c r="D39" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E39" s="14">
         <v>6</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="14">
         <v>1</v>
@@ -9890,18 +9896,18 @@
         <v>66</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" s="14">
         <v>2</v>
@@ -9910,18 +9916,18 @@
         <v>63</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="14">
         <v>3</v>
@@ -9930,58 +9936,58 @@
         <v>65</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="14">
         <v>4</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="14">
         <v>5</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="14">
         <v>6</v>
@@ -9990,164 +9996,164 @@
         <v>67</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E46" s="14">
         <v>1</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E47" s="14">
         <v>2</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E48" s="14">
         <v>3</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E49" s="14">
         <v>4</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E50" s="14">
         <v>5</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E51" s="14">
         <v>6</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E52" s="14">
         <v>7</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="15" t="s">
         <v>124</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E53" s="14">
         <v>8</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>87</v>
@@ -10160,17 +10166,17 @@
       <c r="B54" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>124</v>
+      <c r="D54" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E54" s="14">
         <v>1</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10180,28 +10186,28 @@
       <c r="B55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>124</v>
+      <c r="D55" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E55" s="14">
         <v>2</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E56" s="14">
         <v>1</v>
@@ -10210,18 +10216,18 @@
         <v>66</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="14">
         <v>2</v>
@@ -10230,18 +10236,18 @@
         <v>63</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>124</v>
+        <v>207</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E58" s="14">
         <v>1</v>
@@ -10255,19 +10261,19 @@
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>124</v>
+        <v>207</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E59" s="14">
         <v>2</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>49</v>
@@ -10275,213 +10281,213 @@
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>124</v>
+        <v>272</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E60" s="14">
         <v>1</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>124</v>
+        <v>272</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E61" s="14">
         <v>2</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>124</v>
+        <v>272</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E62" s="14">
         <v>3</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>124</v>
+        <v>272</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E63" s="14">
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>124</v>
+        <v>272</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E64" s="14">
         <v>5</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E65" s="14">
         <v>1</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E66" s="14">
         <v>2</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E67" s="14">
         <v>3</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E68" s="14">
         <v>4</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E69" s="14">
         <v>5</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>66</v>
@@ -10490,18 +10496,18 @@
         <v>66</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>63</v>
@@ -10510,18 +10516,18 @@
         <v>63</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>65</v>
@@ -10530,158 +10536,158 @@
         <v>65</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>124</v>
+        <v>270</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>124</v>
+        <v>270</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>63</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>124</v>
+        <v>270</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>124</v>
+        <v>270</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>124</v>
+        <v>270</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>408</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>66</v>
@@ -10690,18 +10696,18 @@
         <v>66</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>63</v>
@@ -10710,18 +10716,18 @@
         <v>63</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>65</v>
@@ -10730,47 +10736,47 @@
         <v>65</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -10829,19 +10835,19 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -10862,7 +10868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -10908,128 +10914,128 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -11074,7 +11080,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -11084,7 +11090,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -11094,7 +11100,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -11104,7 +11110,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -11114,7 +11120,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -11124,7 +11130,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -11134,7 +11140,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -11144,7 +11150,7 @@
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -12811,13 +12817,13 @@
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/specs/specs.xlsx
+++ b/specs/specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinafillmore/Documents/GitHub/r-pharma2022/specs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/r-pharma2022/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D78534-1063-AC4F-AF2B-2601643DCB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACDE5B5-9F0A-744B-9B59-9269BF4D179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,14 +31,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Documents!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Methods!$A$1:$H$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$P$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$254</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="411">
   <si>
     <t>Attribute</t>
   </si>
@@ -304,6 +304,9 @@
     <t>USA</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -409,6 +412,9 @@
     <t>Integer</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -1069,9 +1075,6 @@
     <t>AESEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">Adverse Even Sequence </t>
-  </si>
-  <si>
     <t>AE.AESEQ</t>
   </si>
   <si>
@@ -1147,12 +1150,6 @@
     <t>STUDYID, USUBJID, PARAMCD</t>
   </si>
   <si>
-    <t>PARCAT1</t>
-  </si>
-  <si>
-    <t>Parameter Category 1</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -1168,12 +1165,6 @@
     <t>Time-to-Event Origin Date for Subject</t>
   </si>
   <si>
-    <t>STARTDTF</t>
-  </si>
-  <si>
-    <t>Origin Date Imputation Flag</t>
-  </si>
-  <si>
     <t>ADT</t>
   </si>
   <si>
@@ -1186,12 +1177,6 @@
     <t>Analysis Relative Day</t>
   </si>
   <si>
-    <t>ADTF</t>
-  </si>
-  <si>
-    <t>Analysis Date Imputation Flag</t>
-  </si>
-  <si>
     <t>CNSR</t>
   </si>
   <si>
@@ -1204,12 +1189,6 @@
     <t>Event or Censoring Description</t>
   </si>
   <si>
-    <t>CNSDTDSC</t>
-  </si>
-  <si>
-    <t>Censor Date Description</t>
-  </si>
-  <si>
     <t>SRCDOM</t>
   </si>
   <si>
@@ -1264,13 +1243,34 @@
     <t>Algorithm to derive ADSL.TRTEDT</t>
   </si>
   <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>AEDECOD</t>
+  </si>
+  <si>
+    <t>Coded Term for the Adverse Event</t>
+  </si>
+  <si>
+    <t>AE.AEDECOD</t>
+  </si>
+  <si>
+    <t>AESEV</t>
+  </si>
+  <si>
+    <t>AEOUT</t>
+  </si>
+  <si>
+    <t>Adverse Event Severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adverse Event Sequence </t>
+  </si>
+  <si>
+    <t>Adverse Event Outcome</t>
+  </si>
+  <si>
+    <t>AE.AESEV</t>
+  </si>
+  <si>
+    <t>AE.AEOUT</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1348,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1431,9 +1431,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1808,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1816,7 +1813,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1824,7 +1821,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1832,7 +1829,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1840,7 +1837,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1911,22 +1908,22 @@
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>49</v>
@@ -1938,19 +1935,19 @@
     </row>
     <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>48</v>
@@ -1965,22 +1962,22 @@
     </row>
     <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>49</v>
@@ -1992,22 +1989,22 @@
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>49</v>
@@ -2124,13 +2121,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P255"/>
+  <dimension ref="A1:P254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F262" sqref="F262"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2208,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>51</v>
@@ -2216,11 +2213,11 @@
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>409</v>
+      <c r="E2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="9">
+        <v>6</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -2229,12 +2226,12 @@
         <v>51</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2244,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>52</v>
@@ -2252,23 +2249,23 @@
       <c r="D3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>126</v>
+      <c r="E3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="19">
+        <v>13</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="19"/>
       <c r="J3" s="21"/>
       <c r="K3" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="10"/>
       <c r="N3" s="20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="20"/>
@@ -2278,16 +2275,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F4" s="9">
         <v>8</v>
@@ -2299,12 +2296,12 @@
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
       <c r="K4" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
       <c r="N4" s="20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
@@ -2314,16 +2311,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="F5" s="9">
         <v>5</v>
@@ -2332,15 +2329,15 @@
       <c r="H5" s="10"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="9"/>
@@ -2350,33 +2347,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>408</v>
+        <v>127</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="9"/>
@@ -2386,16 +2383,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -2404,15 +2401,15 @@
       <c r="H7" s="10"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2422,19 +2419,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>410</v>
+        <v>161</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="10">
+        <v>32</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2443,12 +2440,12 @@
         <v>55</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2458,16 +2455,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>408</v>
+        <v>220</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F9" s="9">
         <v>21</v>
@@ -2476,15 +2473,15 @@
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2494,16 +2491,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F10" s="9">
         <v>8</v>
@@ -2514,15 +2511,15 @@
       <c r="H10" s="10"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -2532,16 +2529,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>408</v>
+        <v>218</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F11" s="10">
         <v>21</v>
@@ -2550,15 +2547,15 @@
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2568,16 +2565,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" s="10">
         <v>8</v>
@@ -2588,15 +2585,15 @@
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2606,16 +2603,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F13" s="9">
         <v>16</v>
@@ -2627,12 +2624,12 @@
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2642,33 +2639,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>343</v>
+        <v>407</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -2678,16 +2675,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F15" s="10">
         <v>16</v>
@@ -2699,12 +2696,12 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="K15" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2714,16 +2711,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F16" s="9">
         <v>8</v>
@@ -2735,11 +2732,11 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -2750,16 +2747,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="9">
         <v>8</v>
@@ -2768,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2788,16 +2785,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>408</v>
+        <v>234</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F18" s="9">
         <v>67</v>
@@ -2808,14 +2805,14 @@
       <c r="H18" s="10"/>
       <c r="I18" s="9"/>
       <c r="J18" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -2825,16 +2822,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>408</v>
+        <v>246</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F19" s="9">
         <v>43</v>
@@ -2844,448 +2841,439 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="29" t="s">
-        <v>90</v>
-      </c>
+      <c r="J19" s="29"/>
       <c r="K19" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L19" s="9"/>
       <c r="N19" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+    <row r="20" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="10"/>
+        <v>402</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="9">
+        <v>43</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="K20" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="9"/>
       <c r="N20" s="10" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
-        <v>1</v>
+      <c r="A21" s="2">
+        <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>409</v>
+        <v>66</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="9"/>
       <c r="N21" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>74</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
-        <v>2</v>
+      <c r="A22" s="18">
+        <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>61</v>
+        <v>108</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>406</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="N22" s="15" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
-        <v>3</v>
+      <c r="A23" s="2">
+        <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F23" s="22">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="J23" s="29"/>
       <c r="K23" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L23" s="9"/>
       <c r="N23" s="10" t="s">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>408</v>
+        <v>60</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="15" t="s">
-        <v>124</v>
+      <c r="I24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>264</v>
+        <v>113</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F25" s="22">
-        <v>6</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="O25" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="9">
-        <v>8</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="22">
+        <v>3</v>
+      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
+      <c r="J26" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F27" s="9">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="J27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" s="10"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="P27" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>149</v>
+        <v>113</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F28" s="9">
-        <v>5</v>
-      </c>
-      <c r="G28" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="F28" s="22">
+        <v>6</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
       <c r="H28" s="10"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>127</v>
+      <c r="K28" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>161</v>
+        <v>121</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F29" s="9">
         <v>8</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>162</v>
+      <c r="G29" s="10">
+        <v>0</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="N29" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="F30" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="10"/>
+      <c r="J30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="9"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F31" s="9">
-        <v>8</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>162</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="9"/>
+      <c r="J31" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -3293,739 +3281,751 @@
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>408</v>
+        <v>163</v>
       </c>
       <c r="F32" s="9">
-        <v>22</v>
-      </c>
-      <c r="G32" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H32" s="10"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F33" s="9">
-        <v>8</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>162</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
         <v>167</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L33" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="N33" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="G34" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F34" s="9">
+        <v>8</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H34" s="10"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="10" t="s">
-        <v>171</v>
-      </c>
+      <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="10">
-        <v>8</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>162</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F35" s="9">
+        <v>22</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="10" t="s">
-        <v>168</v>
+      <c r="J35" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="N35" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F36" s="9">
+        <v>8</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H36" s="10"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>118</v>
+      <c r="J36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="F37" s="9">
+        <v>32</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="9"/>
+      <c r="J37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="10" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F38" s="9">
-        <v>27</v>
-      </c>
-      <c r="G38" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F38" s="10">
+        <v>8</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H38" s="10"/>
       <c r="I38" s="9"/>
       <c r="J38" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>184</v>
+        <v>113</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F39" s="9">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="9"/>
       <c r="J39" s="10" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>218</v>
+        <v>57</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F40" s="9">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="9"/>
       <c r="J40" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="O40" s="10"/>
-      <c r="P40" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="P40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>219</v>
+        <v>184</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F41" s="9">
-        <v>8</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9" t="s">
-        <v>191</v>
+      <c r="J41" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="O41" s="10"/>
-      <c r="P41" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>408</v>
+        <v>186</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F42" s="9">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="O42" s="10"/>
-      <c r="P42" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F43" s="9">
-        <v>8</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="9"/>
       <c r="J43" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L43" s="10"/>
-      <c r="M43" s="9"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="F44" s="9">
         <v>8</v>
       </c>
       <c r="G44" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="10" t="s">
-        <v>204</v>
-      </c>
+      <c r="N44" s="10"/>
       <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-    </row>
-    <row r="45" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+      <c r="P44" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="F45" s="9">
-        <v>8</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="9" t="s">
-        <v>118</v>
+      <c r="J45" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10" t="s">
-        <v>205</v>
-      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-    </row>
-    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P45" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="F46" s="9">
         <v>8</v>
       </c>
       <c r="G46" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="K46" s="22" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="L46" s="10"/>
-      <c r="M46" s="22" t="s">
-        <v>260</v>
-      </c>
+      <c r="M46" s="9"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-    </row>
-    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P46" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>408</v>
+        <v>113</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="F47" s="9">
+        <v>8</v>
+      </c>
+      <c r="G47" s="10">
         <v>1</v>
       </c>
-      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>127</v>
+      <c r="J47" s="10"/>
+      <c r="K47" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="N47" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>408</v>
+        <v>203</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="F48" s="9">
+        <v>8</v>
+      </c>
+      <c r="G48" s="10">
         <v>1</v>
       </c>
-      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>127</v>
+      <c r="J48" s="10"/>
+      <c r="K48" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="N48" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="O48" s="10"/>
-      <c r="P48" s="9"/>
+      <c r="P48" s="10"/>
     </row>
     <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>408</v>
+        <v>113</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="F49" s="9">
-        <v>2</v>
-      </c>
-      <c r="G49" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G49" s="10">
+        <v>9</v>
+      </c>
       <c r="H49" s="10"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="22" t="s">
-        <v>207</v>
-      </c>
+      <c r="J49" s="9"/>
       <c r="K49" s="22" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="M49" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="9"/>
-    </row>
-    <row r="50" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="P49" s="10"/>
+    </row>
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="F50" s="9"/>
+        <v>335</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="J50" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="K50" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10" t="s">
-        <v>402</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L50" s="9"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="9"/>
+      <c r="P50" s="10"/>
     </row>
     <row r="51" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="F51" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="K51" s="22" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="L51" s="10"/>
-      <c r="M51" s="10" t="s">
-        <v>403</v>
-      </c>
+      <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>360</v>
+        <v>214</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>64</v>
+        <v>215</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="9">
+        <v>2</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="J52" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="K52" s="22" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="53" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>122</v>
+        <v>360</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
@@ -4055,69 +4055,73 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="M53" s="10" t="s">
+        <v>395</v>
+      </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="M54" s="10" t="s">
+        <v>396</v>
+      </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="F55" s="9"/>
+        <v>364</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -4125,785 +4129,767 @@
       <c r="O55" s="10"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>1</v>
+    <row r="56" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="28">
+        <v>33</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>60</v>
+        <v>113</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>409</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="J56" s="9"/>
       <c r="K56" s="22" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="10" t="s">
-        <v>292</v>
-      </c>
+      <c r="N56" s="10"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>2</v>
+      <c r="A57" s="28">
+        <v>34</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="10"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="22" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="N57" s="10"/>
       <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
+      <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>4</v>
+      <c r="A58" s="28">
+        <v>35</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>279</v>
+        <v>113</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F58" s="9">
-        <v>6</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="22" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
-      <c r="N58" s="10" t="s">
-        <v>294</v>
-      </c>
+      <c r="N58" s="10"/>
       <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F59" s="9">
-        <v>8</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="K59" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>408</v>
+        <v>61</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F60" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="J60" s="10"/>
       <c r="K60" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L60" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F61" s="9">
-        <v>8</v>
-      </c>
-      <c r="G61" s="10">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="J61" s="10"/>
       <c r="K61" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L61" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O61" s="10"/>
-      <c r="P61" s="9"/>
+      <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
+        <v>5</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="9">
         <v>8</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F62" s="9">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10"/>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
       <c r="H62" s="10"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="J62" s="10"/>
       <c r="K62" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>410</v>
+        <v>155</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="9">
+        <v>5</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L63" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L63" s="9"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F64" s="9">
         <v>8</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>162</v>
+      <c r="G64" s="10">
+        <v>0</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="10" t="s">
-        <v>168</v>
+      <c r="J64" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L64" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L64" s="9"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
+      <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>408</v>
-      </c>
       <c r="F65" s="9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="10" t="s">
-        <v>124</v>
+      <c r="J65" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>408</v>
+        <v>116</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F66" s="9">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="22" t="s">
-        <v>207</v>
+      <c r="J66" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="O66" s="10"/>
-      <c r="P66" s="9"/>
+      <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>408</v>
+        <v>162</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F67" s="9">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H67" s="10"/>
       <c r="I67" s="9"/>
       <c r="J67" s="10" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="O67" s="10"/>
-      <c r="P67" s="9"/>
-    </row>
-    <row r="68" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="P67" s="10"/>
+    </row>
+    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>408</v>
+        <v>127</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F68" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="9"/>
       <c r="J68" s="10" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>408</v>
+        <v>116</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F69" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="10" t="s">
-        <v>190</v>
+      <c r="J69" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
+      <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="10">
-        <v>8</v>
-      </c>
-      <c r="G70" s="10">
-        <v>0</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="9"/>
       <c r="J70" s="10" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L70" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-    </row>
-    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P70" s="9"/>
+    </row>
+    <row r="71" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>408</v>
+        <v>211</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F71" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="9"/>
       <c r="J71" s="10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
     <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>282</v>
+        <v>268</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F72" s="9">
-        <v>8</v>
-      </c>
-      <c r="G72" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="9"/>
       <c r="J72" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F73" s="9">
-        <v>19</v>
-      </c>
-      <c r="G73" s="10"/>
+        <v>269</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="10">
+        <v>8</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
       <c r="H73" s="10"/>
       <c r="I73" s="9"/>
       <c r="J73" s="10" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L73" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L73" s="9"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F74" s="9">
-        <v>8</v>
-      </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="9" t="s">
-        <v>271</v>
+      <c r="J74" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>408</v>
+        <v>284</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F75" s="9">
-        <v>64</v>
-      </c>
-      <c r="G75" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="10" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>408</v>
+        <v>285</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F76" s="9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="22" t="s">
-        <v>273</v>
+      <c r="J76" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L76" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F77" s="10">
+        <v>123</v>
+      </c>
+      <c r="F77" s="9">
         <v>8</v>
       </c>
       <c r="G77" s="10">
@@ -4911,47 +4897,49 @@
       </c>
       <c r="H77" s="10"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="10" t="s">
-        <v>274</v>
+      <c r="J77" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L77" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L77" s="10"/>
       <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
+      <c r="N77" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="10">
-        <v>8</v>
-      </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F78" s="9">
+        <v>64</v>
+      </c>
+      <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="10" t="s">
+        <v>274</v>
+      </c>
       <c r="K78" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L78" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
         <v>337</v>
@@ -4961,55 +4949,57 @@
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>408</v>
+        <v>288</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F79" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="22" t="s">
+        <v>275</v>
+      </c>
       <c r="K79" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="N79" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L79" s="9"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10" t="s">
+        <v>338</v>
+      </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F80" s="9">
+        <v>123</v>
+      </c>
+      <c r="F80" s="10">
         <v>8</v>
       </c>
       <c r="G80" s="10">
@@ -5017,35 +5007,35 @@
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="J80" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="K80" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10" t="s">
-        <v>303</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="9">
+        <v>123</v>
+      </c>
+      <c r="F81" s="10">
         <v>8</v>
       </c>
       <c r="G81" s="10">
@@ -5055,807 +5045,817 @@
       <c r="I81" s="9"/>
       <c r="J81" s="10"/>
       <c r="K81" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="N81" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="O81" s="10"/>
-      <c r="P81" s="9"/>
+      <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
+        <v>31</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="9">
         <v>1</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>409</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="J82" s="10"/>
       <c r="K82" s="22" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10" t="s">
-        <v>292</v>
-      </c>
+      <c r="M82" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>366</v>
+        <v>116</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" s="10"/>
+        <v>292</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" s="9">
+        <v>8</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
       <c r="H83" s="10"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="10"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="22" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10" t="s">
-        <v>293</v>
-      </c>
+      <c r="M83" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>366</v>
+        <v>116</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>408</v>
+        <v>293</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F84" s="9">
-        <v>6</v>
-      </c>
-      <c r="G84" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
       <c r="H84" s="10"/>
       <c r="I84" s="9"/>
       <c r="J84" s="10"/>
       <c r="K84" s="22" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10" t="s">
-        <v>294</v>
-      </c>
+      <c r="M84" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="N84" s="10"/>
       <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
+      <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F85" s="9">
-        <v>8</v>
-      </c>
-      <c r="G85" s="10">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="10"/>
+      <c r="J85" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="K85" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>408</v>
+        <v>61</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F86" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="J86" s="10"/>
       <c r="K86" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L86" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F87" s="9">
-        <v>8</v>
-      </c>
-      <c r="G87" s="10">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="9" t="s">
-        <v>164</v>
-      </c>
+      <c r="J87" s="10"/>
       <c r="K87" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L87" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O87" s="10"/>
-      <c r="P87" s="9"/>
+      <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
+        <v>5</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" s="9">
         <v>8</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F88" s="9">
-        <v>1</v>
-      </c>
-      <c r="G88" s="10"/>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
       <c r="H88" s="10"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="J88" s="10"/>
       <c r="K88" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>410</v>
+        <v>155</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="9">
+        <v>5</v>
       </c>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L89" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L89" s="9"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F90" s="9">
         <v>8</v>
       </c>
-      <c r="G90" s="10" t="s">
-        <v>162</v>
+      <c r="G90" s="10">
+        <v>0</v>
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="10" t="s">
-        <v>168</v>
+      <c r="J90" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L90" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L90" s="9"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
+      <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C91" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>408</v>
-      </c>
       <c r="F91" s="9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="10" t="s">
-        <v>124</v>
+      <c r="J91" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>408</v>
+        <v>367</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F92" s="9">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="22" t="s">
-        <v>207</v>
+      <c r="J92" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="O92" s="10"/>
-      <c r="P92" s="9"/>
+      <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>408</v>
+        <v>162</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F93" s="9">
-        <v>1</v>
-      </c>
-      <c r="G93" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H93" s="10"/>
       <c r="I93" s="9"/>
       <c r="J93" s="10" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="O93" s="10"/>
-      <c r="P93" s="9"/>
-    </row>
-    <row r="94" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="P93" s="10"/>
+    </row>
+    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>408</v>
+        <v>127</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F94" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="9"/>
       <c r="J94" s="10" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>408</v>
+        <v>367</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F95" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="10" t="s">
-        <v>190</v>
+      <c r="J95" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
+      <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F96" s="10">
-        <v>8</v>
-      </c>
-      <c r="G96" s="10">
-        <v>0</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1</v>
+      </c>
+      <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
       <c r="J96" s="10" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L96" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-    </row>
-    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P96" s="9"/>
+    </row>
+    <row r="97" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>408</v>
+        <v>211</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F97" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="9"/>
       <c r="J97" s="10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
     <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>282</v>
+        <v>268</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F98" s="9">
-        <v>8</v>
-      </c>
-      <c r="G98" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
       <c r="J98" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F99" s="9">
-        <v>200</v>
-      </c>
-      <c r="G99" s="10"/>
+        <v>269</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" s="10">
+        <v>8</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
       <c r="H99" s="10"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="10"/>
+      <c r="J99" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="K99" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="L99" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L99" s="9"/>
       <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
+      <c r="N99" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>408</v>
+        <v>283</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F100" s="9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="10"/>
+      <c r="J100" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="K100" s="22" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
+      <c r="N100" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>408</v>
+        <v>284</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F101" s="9">
-        <v>200</v>
-      </c>
-      <c r="G101" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
       <c r="H101" s="10"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="10"/>
+      <c r="J101" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="K101" s="22" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
+      <c r="N101" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="F102" s="9">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="9"/>
       <c r="J102" s="10"/>
       <c r="K102" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
-      <c r="P102" s="9"/>
+      <c r="P102" s="10"/>
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>408</v>
+        <v>288</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F103" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
       <c r="K103" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
-      <c r="P103" s="9"/>
-    </row>
-    <row r="104" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="P103" s="10"/>
+    </row>
+    <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>161</v>
+        <v>370</v>
       </c>
       <c r="F104" s="9">
         <v>8</v>
@@ -5865,61 +5865,61 @@
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
       <c r="K104" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
+      <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>408</v>
+        <v>372</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F105" s="9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
       <c r="K105" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-    </row>
-    <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P105" s="9"/>
+    </row>
+    <row r="106" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F106" s="9">
         <v>8</v>
@@ -5929,7 +5929,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
       <c r="K106" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
@@ -5939,19 +5939,19 @@
     </row>
     <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F107" s="9">
         <v>8</v>
@@ -5961,7 +5961,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
       <c r="K107" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
@@ -5969,31 +5969,31 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>408</v>
+        <v>378</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="F108" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
       <c r="K108" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
@@ -6003,19 +6003,19 @@
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F109" s="9">
         <v>8</v>
@@ -6025,7 +6025,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
       <c r="K109" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -6035,19 +6035,19 @@
     </row>
     <row r="110" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>408</v>
+        <v>382</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F110" s="9">
         <v>200</v>
@@ -6057,7 +6057,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
       <c r="K110" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
@@ -6067,61 +6067,61 @@
     </row>
     <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>408</v>
+        <v>384</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F111" s="9">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
       <c r="K111" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
+      <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>408</v>
+        <v>386</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F112" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
       <c r="K112" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
@@ -6131,62 +6131,48 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>408</v>
+        <v>388</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="F113" s="9">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
       <c r="K113" s="22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
-      <c r="P113" s="9"/>
-    </row>
-    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>36</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F114" s="9">
-        <v>8</v>
-      </c>
+      <c r="P113" s="10"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="9"/>
       <c r="J114" s="10"/>
-      <c r="K114" s="22" t="s">
-        <v>169</v>
-      </c>
+      <c r="K114" s="9"/>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
@@ -6204,7 +6190,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="9"/>
       <c r="J115" s="10"/>
-      <c r="K115" s="9"/>
+      <c r="K115" s="10"/>
       <c r="L115" s="10"/>
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
@@ -6222,7 +6208,7 @@
       <c r="H116" s="10"/>
       <c r="I116" s="9"/>
       <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
+      <c r="K116" s="9"/>
       <c r="L116" s="10"/>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
@@ -6317,7 +6303,7 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
+      <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
@@ -6353,7 +6339,7 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
-      <c r="P123" s="9"/>
+      <c r="P123" s="10"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
@@ -6384,7 +6370,7 @@
       <c r="H125" s="10"/>
       <c r="I125" s="9"/>
       <c r="J125" s="10"/>
-      <c r="K125" s="9"/>
+      <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
@@ -6402,7 +6388,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="9"/>
       <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
+      <c r="K126" s="9"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
@@ -6497,7 +6483,7 @@
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
+      <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
@@ -6533,7 +6519,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
-      <c r="P133" s="9"/>
+      <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
@@ -6564,7 +6550,7 @@
       <c r="H135" s="10"/>
       <c r="I135" s="9"/>
       <c r="J135" s="10"/>
-      <c r="K135" s="9"/>
+      <c r="K135" s="10"/>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
@@ -6582,7 +6568,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="9"/>
       <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
+      <c r="K136" s="9"/>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
@@ -6635,7 +6621,7 @@
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="10"/>
+      <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
@@ -6653,7 +6639,7 @@
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
+      <c r="J140" s="10"/>
       <c r="K140" s="9"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
@@ -6721,7 +6707,7 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
+      <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="9"/>
@@ -6757,7 +6743,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="10"/>
+      <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="9"/>
@@ -6797,7 +6783,7 @@
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="10"/>
+      <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
@@ -6851,7 +6837,7 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
+      <c r="J151" s="10"/>
       <c r="K151" s="9"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
@@ -6977,7 +6963,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="9"/>
-      <c r="J158" s="10"/>
+      <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="10"/>
       <c r="M158" s="10"/>
@@ -6995,7 +6981,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
+      <c r="J159" s="10"/>
       <c r="K159" s="9"/>
       <c r="L159" s="10"/>
       <c r="M159" s="10"/>
@@ -7085,7 +7071,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="10"/>
+      <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
@@ -7123,7 +7109,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
-      <c r="L166" s="10"/>
+      <c r="L166" s="9"/>
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
@@ -7139,7 +7125,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
+      <c r="J167" s="10"/>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
       <c r="M167" s="10"/>
@@ -7159,7 +7145,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="10"/>
       <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
+      <c r="L168" s="10"/>
       <c r="M168" s="10"/>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
@@ -7175,7 +7161,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
       <c r="I169" s="9"/>
-      <c r="J169" s="10"/>
+      <c r="J169" s="9"/>
       <c r="K169" s="9"/>
       <c r="L169" s="10"/>
       <c r="M169" s="10"/>
@@ -7193,7 +7179,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
       <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
+      <c r="J170" s="10"/>
       <c r="K170" s="9"/>
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
@@ -7211,7 +7197,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
       <c r="I171" s="9"/>
-      <c r="J171" s="10"/>
+      <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="10"/>
       <c r="M171" s="10"/>
@@ -7247,7 +7233,7 @@
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
       <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
+      <c r="J173" s="10"/>
       <c r="K173" s="9"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
@@ -7283,7 +7269,7 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
       <c r="I175" s="9"/>
-      <c r="J175" s="10"/>
+      <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="10"/>
       <c r="M175" s="10"/>
@@ -7301,7 +7287,7 @@
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
+      <c r="J176" s="10"/>
       <c r="K176" s="9"/>
       <c r="L176" s="10"/>
       <c r="M176" s="10"/>
@@ -7409,7 +7395,7 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
       <c r="I182" s="9"/>
-      <c r="J182" s="10"/>
+      <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="10"/>
       <c r="M182" s="10"/>
@@ -7427,7 +7413,7 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
+      <c r="J183" s="10"/>
       <c r="K183" s="9"/>
       <c r="L183" s="10"/>
       <c r="M183" s="10"/>
@@ -7463,7 +7449,7 @@
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
       <c r="I185" s="9"/>
-      <c r="J185" s="10"/>
+      <c r="J185" s="9"/>
       <c r="K185" s="9"/>
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
@@ -7483,7 +7469,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
-      <c r="L186" s="10"/>
+      <c r="L186" s="9"/>
       <c r="M186" s="10"/>
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
@@ -7499,7 +7485,7 @@
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
       <c r="I187" s="9"/>
-      <c r="J187" s="9"/>
+      <c r="J187" s="10"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
       <c r="M187" s="10"/>
@@ -7555,7 +7541,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="10"/>
       <c r="K190" s="9"/>
-      <c r="L190" s="9"/>
+      <c r="L190" s="10"/>
       <c r="M190" s="10"/>
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
@@ -7568,8 +7554,8 @@
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
       <c r="I191" s="9"/>
       <c r="J191" s="10"/>
       <c r="K191" s="9"/>
@@ -7586,16 +7572,16 @@
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
       <c r="I192" s="9"/>
-      <c r="J192" s="10"/>
+      <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="10"/>
       <c r="M192" s="10"/>
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
-      <c r="P192" s="10"/>
+      <c r="P192" s="9"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
@@ -7613,7 +7599,7 @@
       <c r="M193" s="10"/>
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
-      <c r="P193" s="9"/>
+      <c r="P193" s="10"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
@@ -7625,13 +7611,13 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="9"/>
-      <c r="J194" s="9"/>
+      <c r="J194" s="10"/>
       <c r="K194" s="9"/>
       <c r="L194" s="10"/>
       <c r="M194" s="10"/>
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
-      <c r="P194" s="10"/>
+      <c r="P194" s="9"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
@@ -7649,7 +7635,7 @@
       <c r="M195" s="10"/>
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
-      <c r="P195" s="9"/>
+      <c r="P195" s="10"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
@@ -7675,13 +7661,13 @@
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
+      <c r="F197" s="10"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
       <c r="I197" s="9"/>
       <c r="J197" s="10"/>
       <c r="K197" s="9"/>
-      <c r="L197" s="10"/>
+      <c r="L197" s="9"/>
       <c r="M197" s="10"/>
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
@@ -7693,30 +7679,30 @@
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="10"/>
+      <c r="F198" s="9"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
       <c r="I198" s="9"/>
       <c r="J198" s="10"/>
       <c r="K198" s="9"/>
-      <c r="L198" s="9"/>
+      <c r="L198" s="10"/>
       <c r="M198" s="10"/>
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A199" s="2"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
-      <c r="I199" s="9"/>
+      <c r="I199" s="10"/>
       <c r="J199" s="10"/>
-      <c r="K199" s="9"/>
+      <c r="K199" s="10"/>
       <c r="L199" s="10"/>
       <c r="M199" s="10"/>
       <c r="N199" s="10"/>
@@ -8713,29 +8699,11 @@
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A255" s="3"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10"/>
-      <c r="J255" s="10"/>
-      <c r="K255" s="10"/>
-      <c r="L255" s="10"/>
-      <c r="M255" s="10"/>
-      <c r="N255" s="10"/>
-      <c r="O255" s="10"/>
-      <c r="P255" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P255" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P56">
-    <sortCondition ref="B2:B56"/>
-    <sortCondition ref="A2:A56"/>
+  <autoFilter ref="A1:P254" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P59">
+    <sortCondition ref="B2:B59"/>
+    <sortCondition ref="A2:A59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8821,45 +8789,45 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" s="15">
         <v>8</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G3" s="15">
         <v>8</v>
@@ -8868,30 +8836,30 @@
         <v>65</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G4" s="15">
         <v>8</v>
@@ -8900,30 +8868,30 @@
         <v>66</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>322</v>
-      </c>
       <c r="F5" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="15">
         <v>8</v>
@@ -8932,30 +8900,30 @@
         <v>66</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" s="15">
         <v>8</v>
@@ -8964,30 +8932,30 @@
         <v>66</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>64</v>
@@ -8996,10 +8964,10 @@
         <v>63</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -9016,10 +8984,10 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:D84"/>
+      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9063,14 +9031,14 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="24">
         <v>1</v>
@@ -9080,19 +9048,19 @@
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" s="24">
         <v>2</v>
@@ -9102,19 +9070,19 @@
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" s="24">
         <v>3</v>
@@ -9124,173 +9092,173 @@
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E6" s="26">
         <v>2</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E7" s="26">
         <v>3</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E8" s="26">
         <v>4</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E9" s="26">
         <v>5</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E10" s="26">
         <v>6</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E11" s="26">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E12" s="26">
         <v>8</v>
@@ -9300,7 +9268,7 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9312,7 +9280,7 @@
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -9322,7 +9290,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9334,17 +9302,17 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9356,7 +9324,7 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E15" s="26">
         <v>2</v>
@@ -9378,17 +9346,17 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E16" s="26">
         <v>3</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9400,7 +9368,7 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E17" s="26">
         <v>4</v>
@@ -9415,64 +9383,64 @@
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E20" s="26">
         <v>3</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25" t="s">
@@ -9481,20 +9449,20 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E21" s="26">
         <v>4</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25" t="s">
@@ -9503,36 +9471,36 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E22" s="26">
         <v>1</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E23" s="26">
         <v>2</v>
@@ -9542,19 +9510,19 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="26">
         <v>1</v>
@@ -9564,19 +9532,19 @@
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25" s="26">
         <v>2</v>
@@ -9586,7 +9554,7 @@
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9598,136 +9566,136 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E28" s="26">
         <v>2</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E29" s="26">
         <v>3</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="27" t="s">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="E30" s="26">
         <v>1</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>408</v>
+        <v>167</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E31" s="14">
         <v>2</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="14">
         <v>1</v>
@@ -9736,18 +9704,18 @@
         <v>66</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E33" s="14">
         <v>2</v>
@@ -9756,7 +9724,7 @@
         <v>63</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -9766,17 +9734,17 @@
       <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>408</v>
+      <c r="D34" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E34" s="14">
         <v>1</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9786,17 +9754,17 @@
       <c r="B35" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>408</v>
+      <c r="D35" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E35" s="14">
         <v>2</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9806,17 +9774,17 @@
       <c r="B36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>408</v>
+      <c r="D36" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E36" s="14">
         <v>3</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9826,17 +9794,17 @@
       <c r="B37" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>408</v>
+      <c r="D37" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E37" s="14">
         <v>4</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -9846,17 +9814,17 @@
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>408</v>
+      <c r="D38" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E38" s="14">
         <v>5</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9866,28 +9834,28 @@
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>408</v>
+      <c r="D39" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E39" s="14">
         <v>6</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40" s="14">
         <v>1</v>
@@ -9896,18 +9864,18 @@
         <v>66</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41" s="14">
         <v>2</v>
@@ -9916,18 +9884,18 @@
         <v>63</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="14">
         <v>3</v>
@@ -9936,58 +9904,58 @@
         <v>65</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43" s="14">
         <v>4</v>
       </c>
       <c r="F43" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44" s="14">
         <v>5</v>
       </c>
       <c r="F44" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E45" s="14">
         <v>6</v>
@@ -9996,164 +9964,164 @@
         <v>67</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E46" s="14">
         <v>1</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E47" s="14">
         <v>2</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E48" s="14">
         <v>3</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E49" s="14">
         <v>4</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E50" s="14">
         <v>5</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E51" s="14">
         <v>6</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E52" s="14">
         <v>7</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>408</v>
       </c>
       <c r="E53" s="14">
         <v>8</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>87</v>
@@ -10166,17 +10134,17 @@
       <c r="B54" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>408</v>
+      <c r="D54" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E54" s="14">
         <v>1</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10186,28 +10154,28 @@
       <c r="B55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>408</v>
+      <c r="D55" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E55" s="14">
         <v>2</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56" s="14">
         <v>1</v>
@@ -10216,18 +10184,18 @@
         <v>66</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57" s="14">
         <v>2</v>
@@ -10236,18 +10204,18 @@
         <v>63</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>408</v>
+        <v>209</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E58" s="14">
         <v>1</v>
@@ -10261,19 +10229,19 @@
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>408</v>
+        <v>209</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E59" s="14">
         <v>2</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>49</v>
@@ -10281,213 +10249,213 @@
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>408</v>
+        <v>274</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E60" s="14">
         <v>1</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>408</v>
+        <v>274</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E61" s="14">
         <v>2</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>408</v>
+        <v>274</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E62" s="14">
         <v>3</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>408</v>
+        <v>274</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E63" s="14">
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>408</v>
+        <v>274</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E64" s="14">
         <v>5</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>408</v>
+        <v>275</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E65" s="14">
         <v>1</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>408</v>
+        <v>275</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E66" s="14">
         <v>2</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>408</v>
+        <v>275</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E67" s="14">
         <v>3</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>408</v>
+        <v>275</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E68" s="14">
         <v>4</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>408</v>
+        <v>275</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E69" s="14">
         <v>5</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>66</v>
@@ -10496,18 +10464,18 @@
         <v>66</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>63</v>
@@ -10516,18 +10484,18 @@
         <v>63</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>65</v>
@@ -10536,158 +10504,158 @@
         <v>65</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>408</v>
+        <v>272</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>408</v>
+        <v>272</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>63</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>408</v>
+        <v>272</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>408</v>
+        <v>272</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>408</v>
+        <v>272</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>66</v>
@@ -10696,18 +10664,18 @@
         <v>66</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>63</v>
@@ -10716,18 +10684,18 @@
         <v>63</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>65</v>
@@ -10736,47 +10704,47 @@
         <v>65</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -10835,19 +10803,19 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -10914,128 +10882,128 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -11080,7 +11048,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -11090,7 +11058,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -11100,7 +11068,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -11110,7 +11078,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -11120,7 +11088,7 @@
         <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -11130,7 +11098,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -11140,7 +11108,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -11150,7 +11118,7 @@
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -12817,13 +12785,13 @@
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/specs/specs.xlsx
+++ b/specs/specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/r-pharma2022/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACDE5B5-9F0A-744B-9B59-9269BF4D179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515FECC9-DEE3-184F-94B7-709E8E9120E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,14 +31,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Documents!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Methods!$A$1:$H$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$P$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$255</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="414">
   <si>
     <t>Attribute</t>
   </si>
@@ -1271,6 +1271,15 @@
   </si>
   <si>
     <t>AE.AEOUT</t>
+  </si>
+  <si>
+    <t>AESER</t>
+  </si>
+  <si>
+    <t>Adverse Event Seriousness</t>
+  </si>
+  <si>
+    <t>AE.AESER</t>
   </si>
 </sst>
 </file>
@@ -2121,13 +2130,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P254"/>
+  <dimension ref="A1:P255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2987,77 +2996,72 @@
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <v>1</v>
+      <c r="A24" s="2">
+        <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>62</v>
+        <v>108</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="9" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="N24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>74</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K25" s="9" t="s">
         <v>119</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="9"/>
       <c r="N25" s="10" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>74</v>
@@ -3066,197 +3070,199 @@
     </row>
     <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="22">
-        <v>3</v>
+      <c r="F26" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="22" t="s">
+      <c r="I26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="9" t="s">
         <v>119</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="9"/>
       <c r="N26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O26" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="22" t="s">
-        <v>128</v>
+      <c r="F27" s="22">
+        <v>3</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>129</v>
+      <c r="J27" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="N27" s="10"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="O27" s="10"/>
-      <c r="P27" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>266</v>
+      <c r="C28" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="22">
-        <v>6</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="9"/>
+      <c r="J28" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="K28" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="10" t="s">
-        <v>342</v>
-      </c>
+      <c r="M28" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="10"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="P28" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>120</v>
+      <c r="C29" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="9">
-        <v>8</v>
+        <v>281</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="22">
+        <v>6</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
       <c r="K29" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="10" t="s">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>62</v>
+        <v>121</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F30" s="9">
-        <v>5</v>
-      </c>
-      <c r="G30" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
       <c r="H30" s="10"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="22" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="9" t="s">
         <v>119</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>62</v>
@@ -3268,46 +3274,46 @@
       <c r="H31" s="10"/>
       <c r="I31" s="9"/>
       <c r="J31" s="10" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L31" s="9"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="N31" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F32" s="9">
-        <v>8</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>166</v>
+      <c r="J32" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -3317,316 +3323,316 @@
     </row>
     <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>119</v>
+        <v>166</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="10" t="s">
-        <v>172</v>
-      </c>
+      <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="F34" s="9">
-        <v>8</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L34" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="N34" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
     <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F35" s="9">
-        <v>22</v>
-      </c>
-      <c r="G35" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H35" s="10"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
     <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="F36" s="9">
-        <v>8</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="N36" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
     <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F37" s="9">
-        <v>32</v>
-      </c>
-      <c r="G37" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H37" s="10"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
     <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="10">
-        <v>8</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F38" s="9">
+        <v>32</v>
+      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="10" t="s">
-        <v>170</v>
+      <c r="J38" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="N38" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
     <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>58</v>
+      <c r="C39" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F39" s="10">
+        <v>8</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H39" s="10"/>
       <c r="I39" s="9"/>
       <c r="J39" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>119</v>
+        <v>170</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
     <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>57</v>
+      <c r="C40" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>64</v>
+      <c r="F40" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="9"/>
       <c r="J40" s="10" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="K40" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
     <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="9">
-        <v>27</v>
+        <v>175</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="9"/>
       <c r="J41" s="10" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>119</v>
@@ -3634,109 +3640,107 @@
       <c r="L41" s="10"/>
       <c r="M41" s="9"/>
       <c r="N41" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
     <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F42" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="9"/>
       <c r="N42" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>220</v>
+        <v>186</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F43" s="9">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="9"/>
       <c r="J43" s="10" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L43" s="9"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="N43" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="O43" s="10"/>
-      <c r="P43" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F44" s="9">
-        <v>8</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9" t="s">
-        <v>193</v>
+      <c r="J44" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="K44" s="22" t="s">
         <v>129</v>
@@ -3746,71 +3750,71 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="9">
-        <v>21</v>
-      </c>
-      <c r="G45" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
       <c r="H45" s="10"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="10" t="s">
-        <v>192</v>
+      <c r="J45" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="K45" s="22" t="s">
         <v>129</v>
       </c>
       <c r="L45" s="10"/>
-      <c r="M45" s="9"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F46" s="9">
-        <v>8</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="9"/>
       <c r="J46" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>129</v>
@@ -3820,57 +3824,59 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="F47" s="9">
         <v>8</v>
       </c>
       <c r="G47" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="J47" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-    </row>
-    <row r="48" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+      <c r="P47" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>205</v>
@@ -3887,26 +3893,26 @@
       <c r="K48" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>205</v>
@@ -3915,68 +3921,70 @@
         <v>8</v>
       </c>
       <c r="G49" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="22" t="s">
-        <v>171</v>
+      <c r="J49" s="10"/>
+      <c r="K49" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="L49" s="10"/>
-      <c r="M49" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="N49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
     <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>335</v>
+      <c r="C50" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="F50" s="9">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G50" s="10">
+        <v>9</v>
+      </c>
       <c r="H50" s="10"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="22" t="s">
-        <v>209</v>
-      </c>
+      <c r="J50" s="9"/>
       <c r="K50" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="10"/>
+        <v>171</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>211</v>
+      <c r="C51" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>124</v>
@@ -3993,30 +4001,30 @@
       <c r="K51" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
-      <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P51" s="10"/>
+    </row>
+    <row r="52" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>215</v>
+      <c r="C52" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F52" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -4033,50 +4041,52 @@
       <c r="O52" s="10"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>392</v>
+        <v>214</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="F53" s="9"/>
+        <v>215</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="9">
+        <v>2</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="K53" s="22" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L53" s="10"/>
-      <c r="M53" s="10" t="s">
-        <v>395</v>
-      </c>
+      <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>360</v>
@@ -4091,31 +4101,29 @@
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9"/>
@@ -4124,28 +4132,32 @@
         <v>171</v>
       </c>
       <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="M55" s="10" t="s">
+        <v>396</v>
+      </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="28">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="9"/>
+        <v>364</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9"/>
@@ -4159,25 +4171,23 @@
       <c r="O56" s="10"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="9"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9"/>
@@ -4193,21 +4203,23 @@
     </row>
     <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="28">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="F58" s="9"/>
+        <v>366</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9"/>
@@ -4222,93 +4234,89 @@
       <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>1</v>
+      <c r="A59" s="28">
+        <v>35</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="9">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F59" s="9"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="J59" s="9"/>
       <c r="K59" s="22" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="10" t="s">
-        <v>294</v>
-      </c>
+      <c r="N59" s="10"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
+      <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F60" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
+      <c r="J60" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="K60" s="22" t="s">
         <v>119</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
     <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F61" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -4320,33 +4328,31 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
     <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F62" s="9">
-        <v>8</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="9"/>
       <c r="J62" s="10"/>
@@ -4356,73 +4362,71 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
     <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F63" s="9">
-        <v>5</v>
-      </c>
-      <c r="G63" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
       <c r="H63" s="10"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="J63" s="10"/>
       <c r="K63" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L63" s="9"/>
+      <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
     <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F64" s="9">
-        <v>8</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K64" s="22" t="s">
         <v>119</v>
@@ -4430,71 +4434,73 @@
       <c r="L64" s="9"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="O64" s="10"/>
-      <c r="P64" s="9"/>
+      <c r="P64" s="10"/>
     </row>
     <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" s="9">
-        <v>1</v>
-      </c>
-      <c r="G65" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K65" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L65" s="10"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F66" s="9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="K66" s="22" t="s">
         <v>119</v>
@@ -4502,37 +4508,35 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
     <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F67" s="9">
-        <v>8</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="10" t="s">
-        <v>170</v>
+      <c r="J67" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="K67" s="22" t="s">
         <v>119</v>
@@ -4540,35 +4544,37 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
     <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F68" s="9">
-        <v>14</v>
-      </c>
-      <c r="G68" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H68" s="10"/>
       <c r="I68" s="9"/>
       <c r="J68" s="10" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="K68" s="22" t="s">
         <v>119</v>
@@ -4576,35 +4582,35 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
     <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>335</v>
+      <c r="C69" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F69" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="22" t="s">
-        <v>209</v>
+      <c r="J69" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="K69" s="22" t="s">
         <v>119</v>
@@ -4612,23 +4618,23 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10" t="s">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="O69" s="10"/>
-      <c r="P69" s="9"/>
+      <c r="P69" s="10"/>
     </row>
     <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>215</v>
+      <c r="C70" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>124</v>
@@ -4639,7 +4645,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="22" t="s">
         <v>209</v>
       </c>
       <c r="K70" s="22" t="s">
@@ -4648,23 +4654,23 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="O70" s="10"/>
       <c r="P70" s="9"/>
     </row>
-    <row r="71" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>124</v>
@@ -4684,35 +4690,35 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-    </row>
-    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P71" s="9"/>
+    </row>
+    <row r="72" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F72" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="9"/>
       <c r="J72" s="10" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K72" s="22" t="s">
         <v>119</v>
@@ -4720,111 +4726,109 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
     <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73" s="10">
-        <v>8</v>
-      </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F73" s="9">
+        <v>21</v>
+      </c>
+      <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="9"/>
       <c r="J73" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K73" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L73" s="9"/>
+      <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
     <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" s="9">
-        <v>21</v>
-      </c>
-      <c r="G74" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F74" s="10">
+        <v>8</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
       <c r="H74" s="10"/>
       <c r="I74" s="9"/>
       <c r="J74" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K74" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L74" s="10"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
     <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F75" s="9">
-        <v>8</v>
-      </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K75" s="22" t="s">
         <v>119</v>
@@ -4832,35 +4836,37 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
     <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F76" s="9">
-        <v>19</v>
-      </c>
-      <c r="G76" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
       <c r="J76" s="10" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="K76" s="22" t="s">
         <v>119</v>
@@ -4868,37 +4874,35 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
     <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F77" s="9">
-        <v>8</v>
-      </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="9" t="s">
-        <v>273</v>
+      <c r="J77" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="K77" s="22" t="s">
         <v>119</v>
@@ -4906,35 +4910,37 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
     <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F78" s="9">
-        <v>64</v>
-      </c>
-      <c r="G78" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
       <c r="H78" s="10"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="10" t="s">
-        <v>274</v>
+      <c r="J78" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="K78" s="22" t="s">
         <v>119</v>
@@ -4942,95 +4948,95 @@
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
     <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F79" s="9">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="22" t="s">
-        <v>275</v>
+      <c r="J79" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L79" s="9"/>
+      <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
     <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="10">
+        <v>124</v>
+      </c>
+      <c r="F80" s="9">
         <v>8</v>
       </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
+      <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="10" t="s">
-        <v>276</v>
+      <c r="J80" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
+      <c r="N80" s="10" t="s">
+        <v>338</v>
+      </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
     <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>123</v>
@@ -5043,83 +5049,83 @@
       </c>
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="10"/>
+      <c r="J81" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="K81" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="10"/>
-      <c r="N81" s="10" t="s">
-        <v>339</v>
-      </c>
+      <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
     <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="9">
-        <v>1</v>
-      </c>
-      <c r="G82" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F82" s="10">
+        <v>8</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
       <c r="H82" s="10"/>
       <c r="I82" s="9"/>
       <c r="J82" s="10"/>
       <c r="K82" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="N82" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L82" s="9"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
     <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F83" s="9">
-        <v>8</v>
-      </c>
-      <c r="G83" s="10">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="J83" s="10"/>
       <c r="K83" s="22" t="s">
         <v>171</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -5127,16 +5133,16 @@
     </row>
     <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B84" s="22" t="s">
         <v>116</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>123</v>
@@ -5149,106 +5155,108 @@
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="10"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="22" t="s">
         <v>171</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
-      <c r="P84" s="9"/>
+      <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>51</v>
+        <v>280</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F85" s="9">
-        <v>6</v>
-      </c>
-      <c r="G85" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
       <c r="H85" s="10"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="J85" s="10"/>
       <c r="K85" s="22" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10" t="s">
-        <v>294</v>
-      </c>
+      <c r="M85" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="N85" s="10"/>
       <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
+      <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F86" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="10"/>
+      <c r="J86" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="K86" s="22" t="s">
         <v>119</v>
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
     <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F87" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -5260,33 +5268,31 @@
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F88" s="9">
-        <v>8</v>
-      </c>
-      <c r="G88" s="10">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="9"/>
       <c r="J88" s="10"/>
@@ -5296,73 +5302,71 @@
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F89" s="9">
-        <v>5</v>
-      </c>
-      <c r="G89" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
       <c r="H89" s="10"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="J89" s="10"/>
       <c r="K89" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L89" s="9"/>
+      <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
     <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F90" s="9">
-        <v>8</v>
-      </c>
-      <c r="G90" s="10">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K90" s="22" t="s">
         <v>119</v>
@@ -5370,71 +5374,73 @@
       <c r="L90" s="9"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="O90" s="10"/>
-      <c r="P90" s="9"/>
+      <c r="P90" s="10"/>
     </row>
     <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F91" s="9">
-        <v>1</v>
-      </c>
-      <c r="G91" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
       <c r="H91" s="10"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K91" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L91" s="10"/>
+      <c r="L91" s="9"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
+      <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F92" s="9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="K92" s="22" t="s">
         <v>119</v>
@@ -5442,37 +5448,35 @@
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
     <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F93" s="9">
-        <v>8</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="10" t="s">
-        <v>170</v>
+      <c r="J93" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="K93" s="22" t="s">
         <v>119</v>
@@ -5480,35 +5484,37 @@
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
     <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F94" s="9">
-        <v>14</v>
-      </c>
-      <c r="G94" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H94" s="10"/>
       <c r="I94" s="9"/>
       <c r="J94" s="10" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>119</v>
@@ -5516,35 +5522,35 @@
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
     <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B95" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>335</v>
+      <c r="C95" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F95" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="22" t="s">
-        <v>209</v>
+      <c r="J95" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="K95" s="22" t="s">
         <v>119</v>
@@ -5552,23 +5558,23 @@
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="O95" s="10"/>
-      <c r="P95" s="9"/>
+      <c r="P95" s="10"/>
     </row>
     <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>215</v>
+      <c r="C96" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>124</v>
@@ -5579,7 +5585,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="22" t="s">
         <v>209</v>
       </c>
       <c r="K96" s="22" t="s">
@@ -5588,23 +5594,23 @@
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="O96" s="10"/>
       <c r="P96" s="9"/>
     </row>
-    <row r="97" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>124</v>
@@ -5624,35 +5630,35 @@
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-    </row>
-    <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P97" s="9"/>
+    </row>
+    <row r="98" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F98" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
       <c r="J98" s="10" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K98" s="22" t="s">
         <v>119</v>
@@ -5660,111 +5666,109 @@
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F99" s="10">
-        <v>8</v>
-      </c>
-      <c r="G99" s="10">
-        <v>0</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F99" s="9">
+        <v>21</v>
+      </c>
+      <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="9"/>
       <c r="J99" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K99" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L99" s="9"/>
+      <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
     <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B100" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F100" s="9">
-        <v>21</v>
-      </c>
-      <c r="G100" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="F100" s="10">
+        <v>8</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
       <c r="H100" s="10"/>
       <c r="I100" s="9"/>
       <c r="J100" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K100" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L100" s="10"/>
+      <c r="L100" s="9"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
     <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F101" s="9">
-        <v>8</v>
-      </c>
-      <c r="G101" s="10">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="9"/>
       <c r="J101" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K101" s="22" t="s">
         <v>119</v>
@@ -5772,61 +5776,67 @@
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
     <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B102" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F102" s="9">
-        <v>200</v>
-      </c>
-      <c r="G102" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
       <c r="H102" s="10"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="10"/>
+      <c r="J102" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="K102" s="22" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
+      <c r="N102" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
     <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B103" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F103" s="9">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -5843,19 +5853,19 @@
     </row>
     <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B104" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>370</v>
+        <v>62</v>
       </c>
       <c r="F104" s="9">
         <v>8</v>
@@ -5871,26 +5881,26 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
-      <c r="P104" s="9"/>
+      <c r="P104" s="10"/>
     </row>
     <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>62</v>
+        <v>370</v>
       </c>
       <c r="F105" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
@@ -5905,24 +5915,24 @@
       <c r="O105" s="10"/>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F106" s="9">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
@@ -5935,20 +5945,20 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-    </row>
-    <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P106" s="9"/>
+    </row>
+    <row r="107" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>163</v>
@@ -5971,16 +5981,16 @@
     </row>
     <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B108" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>163</v>
@@ -6003,16 +6013,16 @@
     </row>
     <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>163</v>
@@ -6033,24 +6043,24 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="F110" s="9">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -6065,24 +6075,24 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B111" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F111" s="9">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
@@ -6095,26 +6105,26 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
-      <c r="P111" s="9"/>
+      <c r="P111" s="10"/>
     </row>
     <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F112" s="9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
@@ -6131,22 +6141,22 @@
     </row>
     <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>367</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="F113" s="9">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
@@ -6159,20 +6169,34 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="P113" s="9"/>
+    </row>
+    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>32</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F114" s="9">
+        <v>8</v>
+      </c>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="9"/>
       <c r="J114" s="10"/>
-      <c r="K114" s="9"/>
+      <c r="K114" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
@@ -6190,7 +6214,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="9"/>
       <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
+      <c r="K115" s="9"/>
       <c r="L115" s="10"/>
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
@@ -6208,7 +6232,7 @@
       <c r="H116" s="10"/>
       <c r="I116" s="9"/>
       <c r="J116" s="10"/>
-      <c r="K116" s="9"/>
+      <c r="K116" s="10"/>
       <c r="L116" s="10"/>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
@@ -6303,7 +6327,7 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
-      <c r="P121" s="9"/>
+      <c r="P121" s="10"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
@@ -6339,7 +6363,7 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
+      <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
@@ -6370,7 +6394,7 @@
       <c r="H125" s="10"/>
       <c r="I125" s="9"/>
       <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
+      <c r="K125" s="9"/>
       <c r="L125" s="10"/>
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
@@ -6388,7 +6412,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="9"/>
       <c r="J126" s="10"/>
-      <c r="K126" s="9"/>
+      <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
@@ -6483,7 +6507,7 @@
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
-      <c r="P131" s="9"/>
+      <c r="P131" s="10"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
@@ -6519,7 +6543,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
+      <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
@@ -6550,7 +6574,7 @@
       <c r="H135" s="10"/>
       <c r="I135" s="9"/>
       <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
+      <c r="K135" s="9"/>
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
@@ -6568,7 +6592,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="9"/>
       <c r="J136" s="10"/>
-      <c r="K136" s="9"/>
+      <c r="K136" s="10"/>
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
@@ -6621,7 +6645,7 @@
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
+      <c r="J139" s="10"/>
       <c r="K139" s="9"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
@@ -6639,7 +6663,7 @@
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="10"/>
+      <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
@@ -6707,7 +6731,7 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="10"/>
+      <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="9"/>
@@ -6743,7 +6767,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
+      <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="9"/>
@@ -6783,7 +6807,7 @@
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
+      <c r="J148" s="10"/>
       <c r="K148" s="9"/>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
@@ -6837,7 +6861,7 @@
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="10"/>
+      <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
@@ -6963,7 +6987,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
+      <c r="J158" s="10"/>
       <c r="K158" s="9"/>
       <c r="L158" s="10"/>
       <c r="M158" s="10"/>
@@ -6981,7 +7005,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="9"/>
-      <c r="J159" s="10"/>
+      <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="10"/>
       <c r="M159" s="10"/>
@@ -7071,7 +7095,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
+      <c r="J164" s="10"/>
       <c r="K164" s="9"/>
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
@@ -7109,7 +7133,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
+      <c r="L166" s="10"/>
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
@@ -7125,7 +7149,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
       <c r="I167" s="9"/>
-      <c r="J167" s="10"/>
+      <c r="J167" s="9"/>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
       <c r="M167" s="10"/>
@@ -7145,7 +7169,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="10"/>
       <c r="K168" s="9"/>
-      <c r="L168" s="10"/>
+      <c r="L168" s="9"/>
       <c r="M168" s="10"/>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
@@ -7161,7 +7185,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
       <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
+      <c r="J169" s="10"/>
       <c r="K169" s="9"/>
       <c r="L169" s="10"/>
       <c r="M169" s="10"/>
@@ -7179,7 +7203,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
       <c r="I170" s="9"/>
-      <c r="J170" s="10"/>
+      <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
@@ -7197,7 +7221,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
       <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
+      <c r="J171" s="10"/>
       <c r="K171" s="9"/>
       <c r="L171" s="10"/>
       <c r="M171" s="10"/>
@@ -7233,7 +7257,7 @@
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
       <c r="I173" s="9"/>
-      <c r="J173" s="10"/>
+      <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
@@ -7269,7 +7293,7 @@
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
       <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
+      <c r="J175" s="10"/>
       <c r="K175" s="9"/>
       <c r="L175" s="10"/>
       <c r="M175" s="10"/>
@@ -7287,7 +7311,7 @@
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
       <c r="I176" s="9"/>
-      <c r="J176" s="10"/>
+      <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="10"/>
       <c r="M176" s="10"/>
@@ -7395,7 +7419,7 @@
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
       <c r="I182" s="9"/>
-      <c r="J182" s="9"/>
+      <c r="J182" s="10"/>
       <c r="K182" s="9"/>
       <c r="L182" s="10"/>
       <c r="M182" s="10"/>
@@ -7413,7 +7437,7 @@
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="9"/>
-      <c r="J183" s="10"/>
+      <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="10"/>
       <c r="M183" s="10"/>
@@ -7449,7 +7473,7 @@
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
       <c r="I185" s="9"/>
-      <c r="J185" s="9"/>
+      <c r="J185" s="10"/>
       <c r="K185" s="9"/>
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
@@ -7469,7 +7493,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
-      <c r="L186" s="9"/>
+      <c r="L186" s="10"/>
       <c r="M186" s="10"/>
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
@@ -7485,7 +7509,7 @@
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
       <c r="I187" s="9"/>
-      <c r="J187" s="10"/>
+      <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
       <c r="M187" s="10"/>
@@ -7541,7 +7565,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="10"/>
       <c r="K190" s="9"/>
-      <c r="L190" s="10"/>
+      <c r="L190" s="9"/>
       <c r="M190" s="10"/>
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
@@ -7554,8 +7578,8 @@
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
       <c r="I191" s="9"/>
       <c r="J191" s="10"/>
       <c r="K191" s="9"/>
@@ -7572,16 +7596,16 @@
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="9"/>
-      <c r="J192" s="9"/>
+      <c r="J192" s="10"/>
       <c r="K192" s="9"/>
       <c r="L192" s="10"/>
       <c r="M192" s="10"/>
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
-      <c r="P192" s="9"/>
+      <c r="P192" s="10"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
@@ -7599,7 +7623,7 @@
       <c r="M193" s="10"/>
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
-      <c r="P193" s="10"/>
+      <c r="P193" s="9"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
@@ -7611,13 +7635,13 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="9"/>
-      <c r="J194" s="10"/>
+      <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="10"/>
       <c r="M194" s="10"/>
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
-      <c r="P194" s="9"/>
+      <c r="P194" s="10"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
@@ -7635,7 +7659,7 @@
       <c r="M195" s="10"/>
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
-      <c r="P195" s="10"/>
+      <c r="P195" s="9"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
@@ -7661,13 +7685,13 @@
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="10"/>
+      <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
       <c r="I197" s="9"/>
       <c r="J197" s="10"/>
       <c r="K197" s="9"/>
-      <c r="L197" s="9"/>
+      <c r="L197" s="10"/>
       <c r="M197" s="10"/>
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
@@ -7679,30 +7703,30 @@
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
+      <c r="F198" s="10"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
       <c r="I198" s="9"/>
       <c r="J198" s="10"/>
       <c r="K198" s="9"/>
-      <c r="L198" s="10"/>
+      <c r="L198" s="9"/>
       <c r="M198" s="10"/>
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
-      <c r="I199" s="10"/>
+      <c r="I199" s="9"/>
       <c r="J199" s="10"/>
-      <c r="K199" s="10"/>
+      <c r="K199" s="9"/>
       <c r="L199" s="10"/>
       <c r="M199" s="10"/>
       <c r="N199" s="10"/>
@@ -8699,11 +8723,29 @@
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
     </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A255" s="3"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+      <c r="O255" s="10"/>
+      <c r="P255" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P254" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P59">
-    <sortCondition ref="B2:B59"/>
-    <sortCondition ref="A2:A59"/>
+  <autoFilter ref="A1:P255" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P60">
+    <sortCondition ref="B2:B60"/>
+    <sortCondition ref="A2:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/specs/specs.xlsx
+++ b/specs/specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neitmant/r-pharma2022/specs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinafillmore/Documents/GitHub/r-pharma2022/specs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515FECC9-DEE3-184F-94B7-709E8E9120E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE4D23-54B1-FA46-B3CE-8EDBC1DD774B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -1280,6 +1277,9 @@
   </si>
   <si>
     <t>AE.AESER</t>
+  </si>
+  <si>
+    <t>character</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1932,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>49</v>
@@ -1980,13 +1980,13 @@
         <v>118</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>49</v>
@@ -1998,22 +1998,22 @@
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>49</v>
@@ -2130,13 +2130,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2222,8 +2223,8 @@
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>124</v>
+      <c r="E2" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F2" s="9">
         <v>6</v>
@@ -2240,7 +2241,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2258,8 +2259,8 @@
       <c r="D3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>124</v>
+      <c r="E3" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F3" s="19">
         <v>13</v>
@@ -2274,12 +2275,12 @@
       <c r="L3" s="19"/>
       <c r="M3" s="10"/>
       <c r="N3" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2310,7 +2311,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
       <c r="N4" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
@@ -2323,13 +2324,13 @@
         <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F5" s="9">
         <v>5</v>
@@ -2338,7 +2339,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>119</v>
@@ -2346,7 +2347,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="9"/>
@@ -2359,22 +2360,22 @@
         <v>108</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="22" t="s">
         <v>119</v>
@@ -2382,7 +2383,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="9"/>
@@ -2398,10 +2399,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -2410,7 +2411,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>119</v>
@@ -2418,7 +2419,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2434,10 +2435,10 @@
         <v>55</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>160</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F8" s="10">
         <v>32</v>
@@ -2454,7 +2455,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2467,13 +2468,13 @@
         <v>108</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>124</v>
+        <v>219</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F9" s="9">
         <v>21</v>
@@ -2482,7 +2483,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>119</v>
@@ -2490,12 +2491,12 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2503,10 +2504,10 @@
         <v>108</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>123</v>
@@ -2520,7 +2521,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>119</v>
@@ -2528,7 +2529,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -2541,13 +2542,13 @@
         <v>108</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>124</v>
+        <v>217</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F11" s="10">
         <v>21</v>
@@ -2556,7 +2557,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>119</v>
@@ -2564,12 +2565,12 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2577,10 +2578,10 @@
         <v>108</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>123</v>
@@ -2594,7 +2595,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
       <c r="J12" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>119</v>
@@ -2602,12 +2603,12 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2615,13 +2616,13 @@
         <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F13" s="9">
         <v>16</v>
@@ -2638,12 +2639,12 @@
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2651,10 +2652,10 @@
         <v>108</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>123</v>
@@ -2663,7 +2664,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="9"/>
@@ -2674,12 +2675,12 @@
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2687,13 +2688,13 @@
         <v>108</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="F15" s="10">
         <v>16</v>
@@ -2710,12 +2711,12 @@
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2723,10 +2724,10 @@
         <v>108</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>123</v>
@@ -2741,17 +2742,17 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2759,10 +2760,10 @@
         <v>108</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>123</v>
@@ -2774,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2797,13 +2798,13 @@
         <v>108</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>124</v>
+      <c r="E18" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F18" s="9">
         <v>67</v>
@@ -2821,7 +2822,7 @@
       </c>
       <c r="L18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -2834,13 +2835,13 @@
         <v>108</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>124</v>
+      <c r="E19" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F19" s="9">
         <v>43</v>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="L19" s="9"/>
       <c r="N19" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -2869,13 +2870,13 @@
         <v>108</v>
       </c>
       <c r="C20" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>124</v>
+      <c r="E20" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F20" s="9">
         <v>43</v>
@@ -2893,7 +2894,7 @@
       </c>
       <c r="L20" s="9"/>
       <c r="N20" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -2906,13 +2907,13 @@
         <v>108</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>347</v>
-      </c>
       <c r="E21" s="22" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>66</v>
@@ -2926,7 +2927,7 @@
       </c>
       <c r="L21" s="9"/>
       <c r="N21" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -2939,13 +2940,13 @@
         <v>108</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>66</v>
@@ -2959,7 +2960,7 @@
       </c>
       <c r="L22" s="9"/>
       <c r="N22" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -2970,13 +2971,13 @@
         <v>108</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>66</v>
@@ -2990,7 +2991,7 @@
       </c>
       <c r="L23" s="9"/>
       <c r="N23" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -3003,13 +3004,13 @@
         <v>108</v>
       </c>
       <c r="C24" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>412</v>
-      </c>
       <c r="E24" s="22" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>66</v>
@@ -3023,7 +3024,7 @@
       </c>
       <c r="L24" s="9"/>
       <c r="N24" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -3041,8 +3042,8 @@
       <c r="D25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>62</v>
+      <c r="E25" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>67</v>
@@ -3061,7 +3062,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="9"/>
       <c r="N25" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>74</v>
@@ -3081,8 +3082,8 @@
       <c r="D26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>62</v>
+      <c r="E26" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>88</v>
@@ -3117,10 +3118,10 @@
         <v>59</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F27" s="22">
         <v>3</v>
@@ -3129,7 +3130,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>119</v>
@@ -3150,34 +3151,34 @@
         <v>113</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="9"/>
       <c r="J28" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3188,13 +3189,13 @@
         <v>113</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="F29" s="22">
         <v>6</v>
@@ -3210,12 +3211,12 @@
       <c r="L29" s="10"/>
       <c r="M29" s="22"/>
       <c r="N29" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <v>6</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>122</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F31" s="9">
         <v>5</v>
@@ -3295,13 +3296,13 @@
         <v>113</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F32" s="9">
         <v>5</v>
@@ -3310,10 +3311,10 @@
       <c r="H32" s="10"/>
       <c r="I32" s="9"/>
       <c r="J32" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -3321,7 +3322,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
         <v>9</v>
       </c>
@@ -3329,27 +3330,27 @@
         <v>113</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F33" s="9">
         <v>8</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -3368,10 +3369,10 @@
         <v>54</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -3380,7 +3381,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>119</v>
@@ -3388,12 +3389,12 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28">
         <v>11</v>
       </c>
@@ -3401,10 +3402,10 @@
         <v>113</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>123</v>
@@ -3413,15 +3414,15 @@
         <v>8</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
@@ -3440,10 +3441,10 @@
         <v>56</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F36" s="9">
         <v>22</v>
@@ -3465,7 +3466,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <v>13</v>
       </c>
@@ -3473,10 +3474,10 @@
         <v>113</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>123</v>
@@ -3485,15 +3486,15 @@
         <v>8</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
@@ -3512,10 +3513,10 @@
         <v>55</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F38" s="9">
         <v>32</v>
@@ -3532,12 +3533,12 @@
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
         <v>15</v>
       </c>
@@ -3545,10 +3546,10 @@
         <v>113</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>123</v>
@@ -3557,15 +3558,15 @@
         <v>8</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="9"/>
       <c r="J39" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
@@ -3584,13 +3585,13 @@
         <v>58</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -3620,10 +3621,10 @@
         <v>57</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>64</v>
@@ -3632,7 +3633,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="9"/>
       <c r="J41" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>119</v>
@@ -3653,13 +3654,13 @@
         <v>113</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>124</v>
+      <c r="E42" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F42" s="9">
         <v>27</v>
@@ -3689,13 +3690,13 @@
         <v>113</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>124</v>
+      <c r="E43" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F43" s="9">
         <v>8</v>
@@ -3704,7 +3705,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="9"/>
       <c r="J43" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>119</v>
@@ -3725,13 +3726,13 @@
         <v>113</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>124</v>
+        <v>219</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F44" s="9">
         <v>21</v>
@@ -3740,20 +3741,20 @@
       <c r="H44" s="10"/>
       <c r="I44" s="9"/>
       <c r="J44" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>21</v>
       </c>
@@ -3761,10 +3762,10 @@
         <v>113</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
@@ -3778,17 +3779,17 @@
       <c r="H45" s="10"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -3799,13 +3800,13 @@
         <v>113</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>124</v>
+        <v>217</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F46" s="9">
         <v>21</v>
@@ -3814,20 +3815,20 @@
       <c r="H46" s="10"/>
       <c r="I46" s="9"/>
       <c r="J46" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="9"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
         <v>23</v>
       </c>
@@ -3835,10 +3836,10 @@
         <v>113</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>123</v>
@@ -3852,20 +3853,20 @@
       <c r="H47" s="10"/>
       <c r="I47" s="9"/>
       <c r="J47" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="9"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
         <v>24</v>
       </c>
@@ -3873,13 +3874,13 @@
         <v>113</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" s="9">
         <v>8</v>
@@ -3896,12 +3897,12 @@
       <c r="L48" s="9"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <v>25</v>
       </c>
@@ -3909,13 +3910,13 @@
         <v>113</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F49" s="9">
         <v>8</v>
@@ -3932,12 +3933,12 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>26</v>
       </c>
@@ -3945,13 +3946,13 @@
         <v>113</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="F50" s="9">
         <v>8</v>
@@ -3963,11 +3964,11 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -3981,13 +3982,13 @@
         <v>113</v>
       </c>
       <c r="C51" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>124</v>
+      <c r="E51" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F51" s="9">
         <v>1</v>
@@ -3996,10 +3997,10 @@
       <c r="H51" s="10"/>
       <c r="I51" s="9"/>
       <c r="J51" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="10"/>
@@ -4015,13 +4016,13 @@
         <v>113</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>124</v>
+      <c r="E52" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -4030,10 +4031,10 @@
       <c r="H52" s="10"/>
       <c r="I52" s="9"/>
       <c r="J52" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -4049,13 +4050,13 @@
         <v>113</v>
       </c>
       <c r="C53" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D53" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>124</v>
+      <c r="E53" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F53" s="9">
         <v>2</v>
@@ -4064,10 +4065,10 @@
       <c r="H53" s="10"/>
       <c r="I53" s="9"/>
       <c r="J53" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -4075,7 +4076,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
         <v>30</v>
       </c>
@@ -4083,13 +4084,13 @@
         <v>113</v>
       </c>
       <c r="C54" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D54" s="22" t="s">
-        <v>393</v>
-      </c>
       <c r="E54" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
@@ -4097,17 +4098,17 @@
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
         <v>31</v>
       </c>
@@ -4115,13 +4116,13 @@
         <v>113</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
@@ -4129,11 +4130,11 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -4147,13 +4148,13 @@
         <v>113</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>124</v>
+        <v>363</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>64</v>
@@ -4163,7 +4164,7 @@
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -4171,7 +4172,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
         <v>33</v>
       </c>
@@ -4179,10 +4180,10 @@
         <v>113</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>123</v>
@@ -4193,7 +4194,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -4209,13 +4210,13 @@
         <v>113</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>124</v>
+        <v>365</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>64</v>
@@ -4225,7 +4226,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -4233,7 +4234,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28">
         <v>35</v>
       </c>
@@ -4241,13 +4242,13 @@
         <v>113</v>
       </c>
       <c r="C59" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="E59" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
@@ -4255,7 +4256,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -4276,8 +4277,8 @@
       <c r="D60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>124</v>
+      <c r="E60" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F60" s="9">
         <v>6</v>
@@ -4294,7 +4295,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -4312,8 +4313,8 @@
       <c r="D61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>124</v>
+      <c r="E61" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F61" s="9">
         <v>13</v>
@@ -4328,7 +4329,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -4341,13 +4342,13 @@
         <v>116</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>124</v>
+        <v>280</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F62" s="9">
         <v>6</v>
@@ -4362,12 +4363,12 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>5</v>
       </c>
@@ -4375,10 +4376,10 @@
         <v>116</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>123</v>
@@ -4398,7 +4399,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -4411,13 +4412,13 @@
         <v>116</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>124</v>
+        <v>154</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F64" s="9">
         <v>5</v>
@@ -4426,7 +4427,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K64" s="22" t="s">
         <v>119</v>
@@ -4434,12 +4435,12 @@
       <c r="L64" s="9"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>7</v>
       </c>
@@ -4447,10 +4448,10 @@
         <v>116</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>123</v>
@@ -4464,7 +4465,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K65" s="22" t="s">
         <v>119</v>
@@ -4472,7 +4473,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O65" s="10"/>
       <c r="P65" s="9"/>
@@ -4488,10 +4489,10 @@
         <v>54</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>124</v>
+        <v>156</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F66" s="9">
         <v>1</v>
@@ -4500,7 +4501,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K66" s="22" t="s">
         <v>119</v>
@@ -4508,7 +4509,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -4524,10 +4525,10 @@
         <v>55</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>124</v>
+        <v>160</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F67" s="9">
         <v>32</v>
@@ -4544,12 +4545,12 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>11</v>
       </c>
@@ -4557,10 +4558,10 @@
         <v>116</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>123</v>
@@ -4569,12 +4570,12 @@
         <v>8</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="9"/>
       <c r="J68" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K68" s="22" t="s">
         <v>119</v>
@@ -4582,7 +4583,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -4595,13 +4596,13 @@
         <v>116</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>124</v>
+      <c r="E69" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F69" s="9">
         <v>14</v>
@@ -4610,7 +4611,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="9"/>
       <c r="J69" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K69" s="22" t="s">
         <v>119</v>
@@ -4618,7 +4619,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -4631,13 +4632,13 @@
         <v>116</v>
       </c>
       <c r="C70" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>124</v>
+      <c r="E70" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F70" s="9">
         <v>1</v>
@@ -4646,7 +4647,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="9"/>
       <c r="J70" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K70" s="22" t="s">
         <v>119</v>
@@ -4654,7 +4655,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O70" s="10"/>
       <c r="P70" s="9"/>
@@ -4667,13 +4668,13 @@
         <v>116</v>
       </c>
       <c r="C71" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>124</v>
+      <c r="E71" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F71" s="9">
         <v>1</v>
@@ -4682,7 +4683,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="9"/>
       <c r="J71" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K71" s="22" t="s">
         <v>119</v>
@@ -4690,7 +4691,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O71" s="10"/>
       <c r="P71" s="9"/>
@@ -4703,13 +4704,13 @@
         <v>116</v>
       </c>
       <c r="C72" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>124</v>
+      <c r="E72" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F72" s="9">
         <v>1</v>
@@ -4718,7 +4719,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="9"/>
       <c r="J72" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K72" s="22" t="s">
         <v>119</v>
@@ -4726,7 +4727,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -4739,13 +4740,13 @@
         <v>116</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>124</v>
+        <v>219</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F73" s="9">
         <v>21</v>
@@ -4754,7 +4755,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="9"/>
       <c r="J73" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K73" s="22" t="s">
         <v>119</v>
@@ -4762,12 +4763,12 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>18</v>
       </c>
@@ -4775,10 +4776,10 @@
         <v>116</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>123</v>
@@ -4792,7 +4793,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="9"/>
       <c r="J74" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K74" s="22" t="s">
         <v>119</v>
@@ -4800,7 +4801,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -4813,13 +4814,13 @@
         <v>116</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>124</v>
+        <v>282</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F75" s="9">
         <v>21</v>
@@ -4828,7 +4829,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K75" s="22" t="s">
         <v>119</v>
@@ -4836,12 +4837,12 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>20</v>
       </c>
@@ -4849,10 +4850,10 @@
         <v>116</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>123</v>
@@ -4866,7 +4867,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="9"/>
       <c r="J76" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K76" s="22" t="s">
         <v>119</v>
@@ -4874,7 +4875,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
@@ -4887,13 +4888,13 @@
         <v>116</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>124</v>
+        <v>284</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F77" s="9">
         <v>19</v>
@@ -4902,7 +4903,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="9"/>
       <c r="J77" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K77" s="22" t="s">
         <v>119</v>
@@ -4910,12 +4911,12 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>24</v>
       </c>
@@ -4923,10 +4924,10 @@
         <v>116</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>123</v>
@@ -4940,7 +4941,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K78" s="22" t="s">
         <v>119</v>
@@ -4948,7 +4949,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -4961,13 +4962,13 @@
         <v>116</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>124</v>
+        <v>286</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F79" s="9">
         <v>64</v>
@@ -4976,7 +4977,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="9"/>
       <c r="J79" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>119</v>
@@ -4984,7 +4985,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -4997,13 +4998,13 @@
         <v>116</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>124</v>
+        <v>287</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F80" s="9">
         <v>8</v>
@@ -5012,7 +5013,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="9"/>
       <c r="J80" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K80" s="22" t="s">
         <v>119</v>
@@ -5020,12 +5021,12 @@
       <c r="L80" s="9"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>29</v>
       </c>
@@ -5033,10 +5034,10 @@
         <v>116</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>123</v>
@@ -5050,10 +5051,10 @@
       <c r="H81" s="10"/>
       <c r="I81" s="9"/>
       <c r="J81" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="10"/>
@@ -5061,7 +5062,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>30</v>
       </c>
@@ -5069,10 +5070,10 @@
         <v>116</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>123</v>
@@ -5092,7 +5093,7 @@
       <c r="L82" s="9"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
@@ -5105,13 +5106,13 @@
         <v>116</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>124</v>
+        <v>290</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F83" s="9">
         <v>1</v>
@@ -5121,17 +5122,17 @@
       <c r="I83" s="9"/>
       <c r="J83" s="10"/>
       <c r="K83" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>32</v>
       </c>
@@ -5139,10 +5140,10 @@
         <v>116</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>123</v>
@@ -5157,17 +5158,17 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>33</v>
       </c>
@@ -5175,10 +5176,10 @@
         <v>116</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>123</v>
@@ -5193,11 +5194,11 @@
       <c r="I85" s="9"/>
       <c r="J85" s="10"/>
       <c r="K85" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -5208,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>51</v>
@@ -5216,8 +5217,8 @@
       <c r="D86" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E86" s="9" t="s">
-        <v>124</v>
+      <c r="E86" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F86" s="9">
         <v>6</v>
@@ -5234,7 +5235,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
@@ -5244,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>52</v>
@@ -5252,8 +5253,8 @@
       <c r="D87" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>124</v>
+      <c r="E87" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F87" s="9">
         <v>13</v>
@@ -5268,7 +5269,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
@@ -5278,16 +5279,16 @@
         <v>4</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>124</v>
+        <v>280</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F88" s="9">
         <v>6</v>
@@ -5302,23 +5303,23 @@
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>5</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>123</v>
@@ -5338,7 +5339,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
@@ -5348,16 +5349,16 @@
         <v>6</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>124</v>
+        <v>154</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F90" s="9">
         <v>5</v>
@@ -5366,7 +5367,7 @@
       <c r="H90" s="10"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K90" s="22" t="s">
         <v>119</v>
@@ -5374,23 +5375,23 @@
       <c r="L90" s="9"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>7</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>123</v>
@@ -5404,7 +5405,7 @@
       <c r="H91" s="10"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K91" s="22" t="s">
         <v>119</v>
@@ -5412,7 +5413,7 @@
       <c r="L91" s="9"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O91" s="10"/>
       <c r="P91" s="9"/>
@@ -5422,16 +5423,16 @@
         <v>8</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>124</v>
+        <v>156</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F92" s="9">
         <v>1</v>
@@ -5440,7 +5441,7 @@
       <c r="H92" s="10"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K92" s="22" t="s">
         <v>119</v>
@@ -5448,7 +5449,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
@@ -5458,16 +5459,16 @@
         <v>9</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>124</v>
+        <v>160</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F93" s="9">
         <v>32</v>
@@ -5484,23 +5485,23 @@
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>11</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>123</v>
@@ -5509,12 +5510,12 @@
         <v>8</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="9"/>
       <c r="J94" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>119</v>
@@ -5522,7 +5523,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
@@ -5532,16 +5533,16 @@
         <v>12</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>124</v>
+      <c r="E95" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F95" s="9">
         <v>14</v>
@@ -5550,7 +5551,7 @@
       <c r="H95" s="10"/>
       <c r="I95" s="9"/>
       <c r="J95" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K95" s="22" t="s">
         <v>119</v>
@@ -5558,7 +5559,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
@@ -5568,16 +5569,16 @@
         <v>14</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C96" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D96" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>124</v>
+      <c r="E96" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F96" s="9">
         <v>1</v>
@@ -5586,7 +5587,7 @@
       <c r="H96" s="10"/>
       <c r="I96" s="9"/>
       <c r="J96" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K96" s="22" t="s">
         <v>119</v>
@@ -5594,7 +5595,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O96" s="10"/>
       <c r="P96" s="9"/>
@@ -5604,16 +5605,16 @@
         <v>15</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>124</v>
+      <c r="E97" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F97" s="9">
         <v>1</v>
@@ -5622,7 +5623,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="9"/>
       <c r="J97" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K97" s="22" t="s">
         <v>119</v>
@@ -5630,7 +5631,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O97" s="10"/>
       <c r="P97" s="9"/>
@@ -5640,16 +5641,16 @@
         <v>16</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>124</v>
+      <c r="E98" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F98" s="9">
         <v>1</v>
@@ -5658,7 +5659,7 @@
       <c r="H98" s="10"/>
       <c r="I98" s="9"/>
       <c r="J98" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K98" s="22" t="s">
         <v>119</v>
@@ -5666,7 +5667,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
@@ -5676,16 +5677,16 @@
         <v>17</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>124</v>
+        <v>219</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F99" s="9">
         <v>21</v>
@@ -5694,7 +5695,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="9"/>
       <c r="J99" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K99" s="22" t="s">
         <v>119</v>
@@ -5702,23 +5703,23 @@
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>18</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>123</v>
@@ -5732,7 +5733,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="9"/>
       <c r="J100" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K100" s="22" t="s">
         <v>119</v>
@@ -5740,7 +5741,7 @@
       <c r="L100" s="9"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
@@ -5750,16 +5751,16 @@
         <v>19</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>124</v>
+        <v>282</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F101" s="9">
         <v>21</v>
@@ -5768,7 +5769,7 @@
       <c r="H101" s="10"/>
       <c r="I101" s="9"/>
       <c r="J101" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K101" s="22" t="s">
         <v>119</v>
@@ -5776,23 +5777,23 @@
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>20</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>123</v>
@@ -5806,7 +5807,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="9"/>
       <c r="J102" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K102" s="22" t="s">
         <v>119</v>
@@ -5814,7 +5815,7 @@
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
@@ -5824,16 +5825,16 @@
         <v>21</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>62</v>
+        <v>286</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F103" s="9">
         <v>200</v>
@@ -5843,7 +5844,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="10"/>
       <c r="K103" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
@@ -5856,16 +5857,16 @@
         <v>22</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>62</v>
+        <v>287</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F104" s="9">
         <v>8</v>
@@ -5875,7 +5876,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="10"/>
       <c r="K104" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
@@ -5883,21 +5884,21 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>23</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F105" s="9">
         <v>8</v>
@@ -5907,7 +5908,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="10"/>
       <c r="K105" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="10"/>
@@ -5920,16 +5921,16 @@
         <v>24</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>62</v>
+      <c r="E106" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F106" s="9">
         <v>40</v>
@@ -5939,7 +5940,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="10"/>
       <c r="K106" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
@@ -5947,21 +5948,21 @@
       <c r="O106" s="10"/>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>25</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="E107" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F107" s="9">
         <v>8</v>
@@ -5971,7 +5972,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="10"/>
       <c r="K107" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
@@ -5979,21 +5980,21 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>26</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>376</v>
-      </c>
       <c r="E108" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F108" s="9">
         <v>8</v>
@@ -6003,7 +6004,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="10"/>
       <c r="K108" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
@@ -6011,21 +6012,21 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>27</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>378</v>
-      </c>
       <c r="E109" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F109" s="9">
         <v>8</v>
@@ -6035,7 +6036,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="10"/>
       <c r="K109" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -6043,21 +6044,21 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>28</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>380</v>
-      </c>
       <c r="E110" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F110" s="9">
         <v>8</v>
@@ -6067,7 +6068,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="10"/>
       <c r="K110" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
@@ -6080,16 +6081,16 @@
         <v>29</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>62</v>
+      <c r="E111" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F111" s="9">
         <v>200</v>
@@ -6099,7 +6100,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="10"/>
       <c r="K111" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
@@ -6112,16 +6113,16 @@
         <v>30</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C112" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>62</v>
+      <c r="E112" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F112" s="9">
         <v>10</v>
@@ -6131,7 +6132,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="10"/>
       <c r="K112" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
@@ -6144,16 +6145,16 @@
         <v>31</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>62</v>
+      <c r="E113" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="F113" s="9">
         <v>50</v>
@@ -6163,7 +6164,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="10"/>
       <c r="K113" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
@@ -6171,21 +6172,21 @@
       <c r="O113" s="10"/>
       <c r="P113" s="9"/>
     </row>
-    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>32</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>388</v>
-      </c>
       <c r="E114" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F114" s="9">
         <v>8</v>
@@ -6195,7 +6196,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="10"/>
       <c r="K114" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="10"/>
@@ -6203,7 +6204,7 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -6221,7 +6222,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -6239,7 +6240,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -6257,7 +6258,7 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -6275,7 +6276,7 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -6293,7 +6294,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -6311,7 +6312,7 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -6329,7 +6330,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -6347,7 +6348,7 @@
       <c r="O122" s="10"/>
       <c r="P122" s="9"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -6365,7 +6366,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="9"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -6383,7 +6384,7 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -6401,7 +6402,7 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -6419,7 +6420,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -6437,7 +6438,7 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -6455,7 +6456,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -6473,7 +6474,7 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -6491,7 +6492,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -6509,7 +6510,7 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -6527,7 +6528,7 @@
       <c r="O132" s="10"/>
       <c r="P132" s="9"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -6545,7 +6546,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="9"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -6563,7 +6564,7 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -6581,7 +6582,7 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -6599,7 +6600,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -6617,7 +6618,7 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -6635,7 +6636,7 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -6653,7 +6654,7 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -6671,7 +6672,7 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -6689,7 +6690,7 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -6707,7 +6708,7 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -6725,7 +6726,7 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -6743,7 +6744,7 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -6761,7 +6762,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -6779,7 +6780,7 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -6797,7 +6798,7 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -6815,7 +6816,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -6833,7 +6834,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -6851,7 +6852,7 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -6869,7 +6870,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -6887,7 +6888,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -6905,7 +6906,7 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -6923,7 +6924,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -6941,7 +6942,7 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -6959,7 +6960,7 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -6977,7 +6978,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -6995,7 +6996,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -7013,7 +7014,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -7031,7 +7032,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -7049,7 +7050,7 @@
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -7067,7 +7068,7 @@
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -7085,7 +7086,7 @@
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -7103,7 +7104,7 @@
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -7121,7 +7122,7 @@
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -7139,7 +7140,7 @@
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -7157,7 +7158,7 @@
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -7175,7 +7176,7 @@
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -7193,7 +7194,7 @@
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -7211,7 +7212,7 @@
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -7229,7 +7230,7 @@
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -7247,7 +7248,7 @@
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -7265,7 +7266,7 @@
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -7283,7 +7284,7 @@
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -7301,7 +7302,7 @@
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -7319,7 +7320,7 @@
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -7337,7 +7338,7 @@
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -7355,7 +7356,7 @@
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -7373,7 +7374,7 @@
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -7391,7 +7392,7 @@
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -7409,7 +7410,7 @@
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -7427,7 +7428,7 @@
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -7445,7 +7446,7 @@
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -7463,7 +7464,7 @@
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -7481,7 +7482,7 @@
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -7499,7 +7500,7 @@
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -7517,7 +7518,7 @@
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -7535,7 +7536,7 @@
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -7553,7 +7554,7 @@
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -7571,7 +7572,7 @@
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -7589,7 +7590,7 @@
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -7607,7 +7608,7 @@
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -7625,7 +7626,7 @@
       <c r="O193" s="10"/>
       <c r="P193" s="9"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -7643,7 +7644,7 @@
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -7661,7 +7662,7 @@
       <c r="O195" s="10"/>
       <c r="P195" s="9"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -7679,7 +7680,7 @@
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -7697,7 +7698,7 @@
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -7715,7 +7716,7 @@
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -7733,7 +7734,7 @@
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -7751,7 +7752,7 @@
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -7769,7 +7770,7 @@
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -7787,7 +7788,7 @@
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -7805,7 +7806,7 @@
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -7823,7 +7824,7 @@
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -7841,7 +7842,7 @@
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -7859,7 +7860,7 @@
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -7877,7 +7878,7 @@
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -7895,7 +7896,7 @@
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -7913,7 +7914,7 @@
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -7931,7 +7932,7 @@
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -7949,7 +7950,7 @@
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -7967,7 +7968,7 @@
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -7985,7 +7986,7 @@
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -8003,7 +8004,7 @@
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -8021,7 +8022,7 @@
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -8039,7 +8040,7 @@
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -8057,7 +8058,7 @@
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -8075,7 +8076,7 @@
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -8093,7 +8094,7 @@
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -8111,7 +8112,7 @@
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -8129,7 +8130,7 @@
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -8147,7 +8148,7 @@
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -8165,7 +8166,7 @@
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -8183,7 +8184,7 @@
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -8201,7 +8202,7 @@
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -8219,7 +8220,7 @@
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -8237,7 +8238,7 @@
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -8255,7 +8256,7 @@
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -8273,7 +8274,7 @@
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -8291,7 +8292,7 @@
       <c r="O230" s="10"/>
       <c r="P230" s="10"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -8309,7 +8310,7 @@
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -8327,7 +8328,7 @@
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -8345,7 +8346,7 @@
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -8363,7 +8364,7 @@
       <c r="O234" s="10"/>
       <c r="P234" s="10"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -8381,7 +8382,7 @@
       <c r="O235" s="10"/>
       <c r="P235" s="10"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -8399,7 +8400,7 @@
       <c r="O236" s="10"/>
       <c r="P236" s="10"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -8417,7 +8418,7 @@
       <c r="O237" s="10"/>
       <c r="P237" s="10"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -8435,7 +8436,7 @@
       <c r="O238" s="10"/>
       <c r="P238" s="10"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -8453,7 +8454,7 @@
       <c r="O239" s="10"/>
       <c r="P239" s="10"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -8471,7 +8472,7 @@
       <c r="O240" s="10"/>
       <c r="P240" s="10"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -8489,7 +8490,7 @@
       <c r="O241" s="10"/>
       <c r="P241" s="10"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -8507,7 +8508,7 @@
       <c r="O242" s="10"/>
       <c r="P242" s="10"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -8525,7 +8526,7 @@
       <c r="O243" s="10"/>
       <c r="P243" s="10"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -8543,7 +8544,7 @@
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -8561,7 +8562,7 @@
       <c r="O245" s="10"/>
       <c r="P245" s="10"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -8579,7 +8580,7 @@
       <c r="O246" s="10"/>
       <c r="P246" s="10"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -8597,7 +8598,7 @@
       <c r="O247" s="10"/>
       <c r="P247" s="10"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -8615,7 +8616,7 @@
       <c r="O248" s="10"/>
       <c r="P248" s="10"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -8633,7 +8634,7 @@
       <c r="O249" s="10"/>
       <c r="P249" s="10"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -8651,7 +8652,7 @@
       <c r="O250" s="10"/>
       <c r="P250" s="10"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -8669,7 +8670,7 @@
       <c r="O251" s="10"/>
       <c r="P251" s="10"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -8687,7 +8688,7 @@
       <c r="O252" s="10"/>
       <c r="P252" s="10"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -8705,7 +8706,7 @@
       <c r="O253" s="10"/>
       <c r="P253" s="10"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -8723,7 +8724,7 @@
       <c r="O254" s="10"/>
       <c r="P254" s="10"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -8742,7 +8743,13 @@
       <c r="P255" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P255" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:P255" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Text"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P60">
     <sortCondition ref="B2:B60"/>
     <sortCondition ref="A2:A60"/>
@@ -8834,13 +8841,13 @@
         <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>308</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>123</v>
@@ -8852,7 +8859,7 @@
         <v>119</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8860,16 +8867,16 @@
         <v>116</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" s="15">
         <v>8</v>
@@ -8878,13 +8885,13 @@
         <v>65</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8892,16 +8899,16 @@
         <v>116</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="15">
         <v>8</v>
@@ -8910,13 +8917,13 @@
         <v>66</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8924,16 +8931,16 @@
         <v>116</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="15">
         <v>8</v>
@@ -8942,13 +8949,13 @@
         <v>66</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -8956,16 +8963,16 @@
         <v>116</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="15">
         <v>8</v>
@@ -8974,30 +8981,30 @@
         <v>66</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>119</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>390</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>64</v>
@@ -9006,10 +9013,10 @@
         <v>63</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -9025,11 +9032,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9073,10 +9080,10 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="27" t="s">
@@ -9090,15 +9097,15 @@
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="27" t="s">
@@ -9112,15 +9119,15 @@
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="27" t="s">
@@ -9134,173 +9141,173 @@
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E5" s="24">
         <v>1</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E6" s="26">
         <v>2</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E7" s="26">
         <v>3</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E8" s="26">
         <v>4</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E9" s="26">
         <v>5</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E10" s="26">
         <v>6</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E11" s="26">
         <v>7</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E12" s="26">
         <v>8</v>
@@ -9310,7 +9317,7 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9322,7 +9329,7 @@
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -9332,7 +9339,7 @@
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9344,17 +9351,17 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9366,7 +9373,7 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E15" s="26">
         <v>2</v>
@@ -9388,17 +9395,17 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E16" s="26">
         <v>3</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9410,7 +9417,7 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E17" s="26">
         <v>4</v>
@@ -9425,64 +9432,64 @@
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E19" s="26">
         <v>2</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E20" s="26">
         <v>3</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25" t="s">
@@ -9491,20 +9498,20 @@
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E21" s="26">
         <v>4</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25" t="s">
@@ -9513,36 +9520,36 @@
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E22" s="26">
         <v>1</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E23" s="26">
         <v>2</v>
@@ -9552,15 +9559,15 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="27" t="s">
@@ -9574,15 +9581,15 @@
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="27" t="s">
@@ -9596,7 +9603,7 @@
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9608,133 +9615,133 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E26" s="26">
         <v>1</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E27" s="26">
         <v>1</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E28" s="26">
         <v>2</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E29" s="26">
         <v>3</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="27" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E30" s="26">
         <v>1</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>124</v>
+        <v>166</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E31" s="14">
         <v>2</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>123</v>
@@ -9746,15 +9753,15 @@
         <v>66</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>123</v>
@@ -9766,7 +9773,7 @@
         <v>63</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -9776,17 +9783,17 @@
       <c r="B34" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>124</v>
+      <c r="D34" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E34" s="14">
         <v>1</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9796,17 +9803,17 @@
       <c r="B35" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>124</v>
+      <c r="D35" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E35" s="14">
         <v>2</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9816,17 +9823,17 @@
       <c r="B36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>124</v>
+      <c r="D36" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E36" s="14">
         <v>3</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9836,17 +9843,17 @@
       <c r="B37" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>124</v>
+      <c r="D37" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E37" s="14">
         <v>4</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -9856,17 +9863,17 @@
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>124</v>
+      <c r="D38" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E38" s="14">
         <v>5</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9876,25 +9883,25 @@
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>124</v>
+      <c r="D39" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E39" s="14">
         <v>6</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>123</v>
@@ -9906,15 +9913,15 @@
         <v>66</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>123</v>
@@ -9926,15 +9933,15 @@
         <v>63</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>123</v>
@@ -9946,15 +9953,15 @@
         <v>65</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>123</v>
@@ -9963,18 +9970,18 @@
         <v>4</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>123</v>
@@ -9983,18 +9990,18 @@
         <v>5</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>123</v>
@@ -10006,164 +10013,164 @@
         <v>67</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E46" s="14">
         <v>1</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E47" s="14">
         <v>2</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E48" s="14">
         <v>3</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E49" s="14">
         <v>4</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E50" s="14">
         <v>5</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E51" s="14">
         <v>6</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E52" s="14">
         <v>7</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E53" s="14">
         <v>8</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H53" s="23" t="s">
         <v>87</v>
@@ -10176,17 +10183,17 @@
       <c r="B54" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>124</v>
+      <c r="D54" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E54" s="14">
         <v>1</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10196,25 +10203,25 @@
       <c r="B55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>124</v>
+      <c r="D55" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E55" s="14">
         <v>2</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>123</v>
@@ -10226,15 +10233,15 @@
         <v>66</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>123</v>
@@ -10246,18 +10253,18 @@
         <v>63</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>124</v>
+        <v>208</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E58" s="14">
         <v>1</v>
@@ -10271,13 +10278,13 @@
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>124</v>
+        <v>208</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E59" s="14">
         <v>2</v>
@@ -10291,210 +10298,210 @@
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E60" s="14">
         <v>1</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E61" s="14">
         <v>2</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E62" s="14">
         <v>3</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E63" s="14">
         <v>4</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>124</v>
+        <v>273</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E64" s="14">
         <v>5</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E65" s="14">
         <v>1</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E66" s="14">
         <v>2</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E67" s="14">
         <v>3</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E68" s="14">
         <v>4</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>124</v>
+        <v>274</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E69" s="14">
         <v>5</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>123</v>
@@ -10506,15 +10513,15 @@
         <v>66</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>123</v>
@@ -10526,15 +10533,15 @@
         <v>63</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>123</v>
@@ -10546,155 +10553,155 @@
         <v>65</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>124</v>
+        <v>271</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>66</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>124</v>
+        <v>271</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>63</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>124</v>
+        <v>271</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>65</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>124</v>
+        <v>271</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>124</v>
+        <v>271</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>123</v>
@@ -10706,15 +10713,15 @@
         <v>66</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>123</v>
@@ -10726,15 +10733,15 @@
         <v>63</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>123</v>
@@ -10746,47 +10753,47 @@
         <v>65</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>123</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -10924,128 +10931,128 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
